--- a/020-内部設計/023-クラス仕様書/013_商品検索/Service/クラス仕様書_MainService.xlsx
+++ b/020-内部設計/023-クラス仕様書/013_商品検索/Service/クラス仕様書_MainService.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F93E3-9B1C-4C2F-82F3-DDF8564113F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693EFE60-3F35-46E3-A086-00ECBF6304F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-16200" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="3" r:id="rId1"/>
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BI$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（execute）'!$A$1:$BI$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -257,10 +258,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>com.bh.ecsite.database.ConnectionManager</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>getConnection</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -434,66 +431,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1. 戻り値となる画面表示用データ(表1.)を保持する変数を作成。</t>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>2. データベースに接続。</t>
     <rPh sb="10" eb="12">
       <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>6. データベースの接続を解除。</t>
-    <rPh sb="10" eb="12">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>1. 処理2～5でJDBCドライバが読み込めなかった場合、呼び出し元にクラス読み込みエラーを投げる(このメソッドでは、例外処理を行わない)。</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -609,13 +549,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>処理2～5でデータベース接続・SQL実行でエラーが発生した場合、SQLエラーを投げる(このメソッドでは、例外処理を行わない)。</t>
-    <rPh sb="12" eb="14">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>SearchDTO</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -711,22 +644,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>7. 戻り値として画面表示用データを返却。</t>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>データベース接続・SQL実行でエラーが発生した場合の例外</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -767,6 +684,158 @@
     <t>データベース接続を引数に設定</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>java.util</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リストを作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;CategoryDTO&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;ColorDTO&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>com.bh.ecsite.database</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>6. 画面表示用データを保持する変数を作成。</t>
+    <rPh sb="3" eb="8">
+      <t>ガメンヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>変数の作成時、取得したカテゴリデータとカラーデータを引数に渡し、初期化。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サクセイジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>7. データベースの接続を解除。</t>
+    <rPh sb="10" eb="12">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>8. 戻り値として画面表示用データを返却。</t>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1. 処理2～6でJDBCドライバが読み込めなかった場合、呼び出し元にクラス読み込みエラーを投げる(このメソッドでは、例外処理を行わない)。</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理2～6でデータベース接続・SQL実行でエラーが発生した場合、SQLエラーを投げる(このメソッドでは、例外処理を行わない)。</t>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 戻り値となる画面表示用データ(表1.)を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保持する変数をnullで初期化。</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -775,7 +844,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -832,6 +901,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -859,7 +934,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1214,15 +1289,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1350,7 +1416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1513,26 +1579,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1570,10 +1618,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1582,50 +1630,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1750,13 +1810,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1767,6 +1821,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1786,9 +1849,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1797,6 +1857,66 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2110,7 +2230,7 @@
   <dimension ref="A1:IY22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="95" zoomScaleNormal="70" zoomScaleSheetLayoutView="95" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+      <selection activeCell="G4" sqref="G4:BI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2119,85 +2239,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="92" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="94" t="s">
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="94"/>
-      <c r="AP1" s="94"/>
-      <c r="AQ1" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR1" s="92"/>
-      <c r="AS1" s="92"/>
-      <c r="AT1" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU1" s="94"/>
-      <c r="AV1" s="94"/>
-      <c r="AW1" s="94"/>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="94"/>
-      <c r="AZ1" s="94"/>
-      <c r="BA1" s="92" t="s">
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="92"/>
-      <c r="BC1" s="92"/>
-      <c r="BD1" s="100">
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="98">
         <v>45909</v>
       </c>
-      <c r="BE1" s="100"/>
-      <c r="BF1" s="100"/>
-      <c r="BG1" s="100"/>
-      <c r="BH1" s="100"/>
-      <c r="BI1" s="100"/>
+      <c r="BE1" s="98"/>
+      <c r="BF1" s="98"/>
+      <c r="BG1" s="98"/>
+      <c r="BH1" s="98"/>
+      <c r="BI1" s="98"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2397,78 +2517,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="92" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="92" t="s">
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="94" t="str">
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="92" t="str">
         <f>G6</f>
         <v>MainService</v>
       </c>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="92" t="s">
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="92" t="s">
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="92"/>
-      <c r="BC2" s="92"/>
-      <c r="BD2" s="100"/>
-      <c r="BE2" s="100"/>
-      <c r="BF2" s="100"/>
-      <c r="BG2" s="100"/>
-      <c r="BH2" s="100"/>
-      <c r="BI2" s="100"/>
+      <c r="BB2" s="90"/>
+      <c r="BC2" s="90"/>
+      <c r="BD2" s="98"/>
+      <c r="BE2" s="98"/>
+      <c r="BF2" s="98"/>
+      <c r="BG2" s="98"/>
+      <c r="BH2" s="98"/>
+      <c r="BI2" s="98"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2668,410 +2788,410 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="98"/>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="98"/>
-      <c r="BH4" s="98"/>
-      <c r="BI4" s="99"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="96"/>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="96"/>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="96"/>
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="96"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="97"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="98"/>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="98"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="98"/>
-      <c r="BA5" s="98"/>
-      <c r="BB5" s="98"/>
-      <c r="BC5" s="98"/>
-      <c r="BD5" s="98"/>
-      <c r="BE5" s="98"/>
-      <c r="BF5" s="98"/>
-      <c r="BG5" s="98"/>
-      <c r="BH5" s="98"/>
-      <c r="BI5" s="99"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="96"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="96"/>
+      <c r="AI5" s="96"/>
+      <c r="AJ5" s="96"/>
+      <c r="AK5" s="96"/>
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="96"/>
+      <c r="AN5" s="96"/>
+      <c r="AO5" s="96"/>
+      <c r="AP5" s="96"/>
+      <c r="AQ5" s="96"/>
+      <c r="AR5" s="96"/>
+      <c r="AS5" s="96"/>
+      <c r="AT5" s="96"/>
+      <c r="AU5" s="96"/>
+      <c r="AV5" s="96"/>
+      <c r="AW5" s="96"/>
+      <c r="AX5" s="96"/>
+      <c r="AY5" s="96"/>
+      <c r="AZ5" s="96"/>
+      <c r="BA5" s="96"/>
+      <c r="BB5" s="96"/>
+      <c r="BC5" s="96"/>
+      <c r="BD5" s="96"/>
+      <c r="BE5" s="96"/>
+      <c r="BF5" s="96"/>
+      <c r="BG5" s="96"/>
+      <c r="BH5" s="96"/>
+      <c r="BI5" s="97"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="98"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="98"/>
-      <c r="AS6" s="98"/>
-      <c r="AT6" s="98"/>
-      <c r="AU6" s="98"/>
-      <c r="AV6" s="98"/>
-      <c r="AW6" s="98"/>
-      <c r="AX6" s="98"/>
-      <c r="AY6" s="98"/>
-      <c r="AZ6" s="98"/>
-      <c r="BA6" s="98"/>
-      <c r="BB6" s="98"/>
-      <c r="BC6" s="98"/>
-      <c r="BD6" s="98"/>
-      <c r="BE6" s="98"/>
-      <c r="BF6" s="98"/>
-      <c r="BG6" s="98"/>
-      <c r="BH6" s="98"/>
-      <c r="BI6" s="99"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="96"/>
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="96"/>
+      <c r="AK6" s="96"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="96"/>
+      <c r="AN6" s="96"/>
+      <c r="AO6" s="96"/>
+      <c r="AP6" s="96"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="96"/>
+      <c r="AS6" s="96"/>
+      <c r="AT6" s="96"/>
+      <c r="AU6" s="96"/>
+      <c r="AV6" s="96"/>
+      <c r="AW6" s="96"/>
+      <c r="AX6" s="96"/>
+      <c r="AY6" s="96"/>
+      <c r="AZ6" s="96"/>
+      <c r="BA6" s="96"/>
+      <c r="BB6" s="96"/>
+      <c r="BC6" s="96"/>
+      <c r="BD6" s="96"/>
+      <c r="BE6" s="96"/>
+      <c r="BF6" s="96"/>
+      <c r="BG6" s="96"/>
+      <c r="BH6" s="96"/>
+      <c r="BI6" s="97"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="98"/>
-      <c r="AQ7" s="98"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="98"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="98"/>
-      <c r="BF7" s="98"/>
-      <c r="BG7" s="98"/>
-      <c r="BH7" s="98"/>
-      <c r="BI7" s="99"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="96"/>
+      <c r="AJ7" s="96"/>
+      <c r="AK7" s="96"/>
+      <c r="AL7" s="96"/>
+      <c r="AM7" s="96"/>
+      <c r="AN7" s="96"/>
+      <c r="AO7" s="96"/>
+      <c r="AP7" s="96"/>
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="96"/>
+      <c r="AS7" s="96"/>
+      <c r="AT7" s="96"/>
+      <c r="AU7" s="96"/>
+      <c r="AV7" s="96"/>
+      <c r="AW7" s="96"/>
+      <c r="AX7" s="96"/>
+      <c r="AY7" s="96"/>
+      <c r="AZ7" s="96"/>
+      <c r="BA7" s="96"/>
+      <c r="BB7" s="96"/>
+      <c r="BC7" s="96"/>
+      <c r="BD7" s="96"/>
+      <c r="BE7" s="96"/>
+      <c r="BF7" s="96"/>
+      <c r="BG7" s="96"/>
+      <c r="BH7" s="96"/>
+      <c r="BI7" s="97"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="98"/>
-      <c r="AR8" s="98"/>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="98"/>
-      <c r="AW8" s="98"/>
-      <c r="AX8" s="98"/>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="98"/>
-      <c r="BA8" s="98"/>
-      <c r="BB8" s="98"/>
-      <c r="BC8" s="98"/>
-      <c r="BD8" s="98"/>
-      <c r="BE8" s="98"/>
-      <c r="BF8" s="98"/>
-      <c r="BG8" s="98"/>
-      <c r="BH8" s="98"/>
-      <c r="BI8" s="99"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="96"/>
+      <c r="AF8" s="96"/>
+      <c r="AG8" s="96"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="96"/>
+      <c r="AJ8" s="96"/>
+      <c r="AK8" s="96"/>
+      <c r="AL8" s="96"/>
+      <c r="AM8" s="96"/>
+      <c r="AN8" s="96"/>
+      <c r="AO8" s="96"/>
+      <c r="AP8" s="96"/>
+      <c r="AQ8" s="96"/>
+      <c r="AR8" s="96"/>
+      <c r="AS8" s="96"/>
+      <c r="AT8" s="96"/>
+      <c r="AU8" s="96"/>
+      <c r="AV8" s="96"/>
+      <c r="AW8" s="96"/>
+      <c r="AX8" s="96"/>
+      <c r="AY8" s="96"/>
+      <c r="AZ8" s="96"/>
+      <c r="BA8" s="96"/>
+      <c r="BB8" s="96"/>
+      <c r="BC8" s="96"/>
+      <c r="BD8" s="96"/>
+      <c r="BE8" s="96"/>
+      <c r="BF8" s="96"/>
+      <c r="BG8" s="96"/>
+      <c r="BH8" s="96"/>
+      <c r="BI8" s="97"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="96" t="s">
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="96"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="96"/>
-      <c r="AI9" s="96"/>
-      <c r="AJ9" s="96"/>
-      <c r="AK9" s="96"/>
-      <c r="AL9" s="102" t="s">
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="94"/>
+      <c r="AJ9" s="94"/>
+      <c r="AK9" s="94"/>
+      <c r="AL9" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="102"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="102"/>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="102"/>
-      <c r="BA9" s="102"/>
-      <c r="BB9" s="102"/>
-      <c r="BC9" s="102"/>
-      <c r="BD9" s="102"/>
-      <c r="BE9" s="102"/>
-      <c r="BF9" s="102"/>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="102"/>
-      <c r="BI9" s="102"/>
+      <c r="AM9" s="100"/>
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="100"/>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="100"/>
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="100"/>
+      <c r="AU9" s="100"/>
+      <c r="AV9" s="100"/>
+      <c r="AW9" s="100"/>
+      <c r="AX9" s="100"/>
+      <c r="AY9" s="100"/>
+      <c r="AZ9" s="100"/>
+      <c r="BA9" s="100"/>
+      <c r="BB9" s="100"/>
+      <c r="BC9" s="100"/>
+      <c r="BD9" s="100"/>
+      <c r="BE9" s="100"/>
+      <c r="BF9" s="100"/>
+      <c r="BG9" s="100"/>
+      <c r="BH9" s="100"/>
+      <c r="BI9" s="100"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -3083,169 +3203,169 @@
       <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="103" t="s">
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="103" t="s">
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="110" t="s">
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="110"/>
-      <c r="AI12" s="110" t="s">
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="AJ12" s="110"/>
-      <c r="AK12" s="110"/>
-      <c r="AL12" s="110"/>
-      <c r="AM12" s="110"/>
-      <c r="AN12" s="110"/>
-      <c r="AO12" s="110"/>
-      <c r="AP12" s="110"/>
-      <c r="AQ12" s="110"/>
-      <c r="AR12" s="110"/>
-      <c r="AS12" s="110"/>
-      <c r="AT12" s="110"/>
-      <c r="AU12" s="110"/>
-      <c r="AV12" s="110"/>
-      <c r="AW12" s="110"/>
-      <c r="AX12" s="110"/>
-      <c r="AY12" s="110"/>
-      <c r="AZ12" s="110"/>
-      <c r="BA12" s="111" t="s">
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="108"/>
+      <c r="AL12" s="108"/>
+      <c r="AM12" s="108"/>
+      <c r="AN12" s="108"/>
+      <c r="AO12" s="108"/>
+      <c r="AP12" s="108"/>
+      <c r="AQ12" s="108"/>
+      <c r="AR12" s="108"/>
+      <c r="AS12" s="108"/>
+      <c r="AT12" s="108"/>
+      <c r="AU12" s="108"/>
+      <c r="AV12" s="108"/>
+      <c r="AW12" s="108"/>
+      <c r="AX12" s="108"/>
+      <c r="AY12" s="108"/>
+      <c r="AZ12" s="108"/>
+      <c r="BA12" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="BB12" s="103"/>
-      <c r="BC12" s="103"/>
-      <c r="BD12" s="103"/>
-      <c r="BE12" s="103"/>
-      <c r="BF12" s="103"/>
-      <c r="BG12" s="103"/>
-      <c r="BH12" s="104"/>
-      <c r="DI12" s="103" t="s">
+      <c r="BB12" s="101"/>
+      <c r="BC12" s="101"/>
+      <c r="BD12" s="101"/>
+      <c r="BE12" s="101"/>
+      <c r="BF12" s="101"/>
+      <c r="BG12" s="101"/>
+      <c r="BH12" s="102"/>
+      <c r="DI12" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="DJ12" s="103"/>
-      <c r="DK12" s="103"/>
-      <c r="DL12" s="103"/>
-      <c r="DM12" s="103"/>
-      <c r="DN12" s="103"/>
-      <c r="DO12" s="103"/>
-      <c r="DP12" s="104"/>
+      <c r="DJ12" s="101"/>
+      <c r="DK12" s="101"/>
+      <c r="DL12" s="101"/>
+      <c r="DM12" s="101"/>
+      <c r="DN12" s="101"/>
+      <c r="DO12" s="101"/>
+      <c r="DP12" s="102"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>1</v>
       </c>
-      <c r="C13" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="106"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="113" t="s">
+      <c r="C13" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="105"/>
+      <c r="AI13" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="AJ13" s="113"/>
-      <c r="AK13" s="113"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="113"/>
-      <c r="AO13" s="113"/>
-      <c r="AP13" s="113"/>
-      <c r="AQ13" s="113"/>
-      <c r="AR13" s="113"/>
-      <c r="AS13" s="113"/>
-      <c r="AT13" s="113"/>
-      <c r="AU13" s="113"/>
-      <c r="AV13" s="113"/>
-      <c r="AW13" s="113"/>
-      <c r="AX13" s="113"/>
-      <c r="AY13" s="113"/>
-      <c r="AZ13" s="113"/>
-      <c r="BA13" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB13" s="106"/>
-      <c r="BC13" s="106"/>
-      <c r="BD13" s="106"/>
-      <c r="BE13" s="106"/>
-      <c r="BF13" s="106"/>
-      <c r="BG13" s="106"/>
-      <c r="BH13" s="107"/>
-      <c r="DI13" s="108"/>
-      <c r="DJ13" s="108"/>
-      <c r="DK13" s="108"/>
-      <c r="DL13" s="108"/>
-      <c r="DM13" s="108"/>
-      <c r="DN13" s="108"/>
-      <c r="DO13" s="108"/>
-      <c r="DP13" s="109"/>
+      <c r="AJ13" s="111"/>
+      <c r="AK13" s="111"/>
+      <c r="AL13" s="111"/>
+      <c r="AM13" s="111"/>
+      <c r="AN13" s="111"/>
+      <c r="AO13" s="111"/>
+      <c r="AP13" s="111"/>
+      <c r="AQ13" s="111"/>
+      <c r="AR13" s="111"/>
+      <c r="AS13" s="111"/>
+      <c r="AT13" s="111"/>
+      <c r="AU13" s="111"/>
+      <c r="AV13" s="111"/>
+      <c r="AW13" s="111"/>
+      <c r="AX13" s="111"/>
+      <c r="AY13" s="111"/>
+      <c r="AZ13" s="111"/>
+      <c r="BA13" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB13" s="104"/>
+      <c r="BC13" s="104"/>
+      <c r="BD13" s="104"/>
+      <c r="BE13" s="104"/>
+      <c r="BF13" s="104"/>
+      <c r="BG13" s="104"/>
+      <c r="BH13" s="105"/>
+      <c r="DI13" s="106"/>
+      <c r="DJ13" s="106"/>
+      <c r="DK13" s="106"/>
+      <c r="DL13" s="106"/>
+      <c r="DM13" s="106"/>
+      <c r="DN13" s="106"/>
+      <c r="DO13" s="106"/>
+      <c r="DP13" s="107"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -3256,155 +3376,155 @@
       <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="103" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="103" t="s">
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="110" t="s">
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110" t="s">
+      <c r="AB16" s="108"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="117" t="s">
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="117"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="117"/>
-      <c r="AN16" s="117"/>
-      <c r="AO16" s="117"/>
-      <c r="AP16" s="117"/>
-      <c r="AQ16" s="117"/>
-      <c r="AR16" s="117"/>
-      <c r="AS16" s="117"/>
-      <c r="AT16" s="117"/>
-      <c r="AU16" s="117"/>
-      <c r="AV16" s="117"/>
-      <c r="AW16" s="117"/>
-      <c r="AX16" s="117"/>
-      <c r="AY16" s="117"/>
-      <c r="AZ16" s="111"/>
-      <c r="BA16" s="103" t="s">
+      <c r="AH16" s="115"/>
+      <c r="AI16" s="115"/>
+      <c r="AJ16" s="115"/>
+      <c r="AK16" s="115"/>
+      <c r="AL16" s="115"/>
+      <c r="AM16" s="115"/>
+      <c r="AN16" s="115"/>
+      <c r="AO16" s="115"/>
+      <c r="AP16" s="115"/>
+      <c r="AQ16" s="115"/>
+      <c r="AR16" s="115"/>
+      <c r="AS16" s="115"/>
+      <c r="AT16" s="115"/>
+      <c r="AU16" s="115"/>
+      <c r="AV16" s="115"/>
+      <c r="AW16" s="115"/>
+      <c r="AX16" s="115"/>
+      <c r="AY16" s="115"/>
+      <c r="AZ16" s="109"/>
+      <c r="BA16" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="BB16" s="103"/>
-      <c r="BC16" s="103"/>
-      <c r="BD16" s="103"/>
-      <c r="BE16" s="103"/>
-      <c r="BF16" s="103"/>
-      <c r="BG16" s="103"/>
-      <c r="BH16" s="104"/>
+      <c r="BB16" s="101"/>
+      <c r="BC16" s="101"/>
+      <c r="BD16" s="101"/>
+      <c r="BE16" s="101"/>
+      <c r="BF16" s="101"/>
+      <c r="BG16" s="101"/>
+      <c r="BH16" s="102"/>
     </row>
     <row r="17" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
         <v>1</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="114" t="s">
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="105"/>
+      <c r="AA17" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="AB17" s="114"/>
-      <c r="AC17" s="114"/>
-      <c r="AD17" s="114" t="s">
+      <c r="AB17" s="112"/>
+      <c r="AC17" s="112"/>
+      <c r="AD17" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="AE17" s="114"/>
-      <c r="AF17" s="114"/>
-      <c r="AG17" s="115" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH17" s="115"/>
-      <c r="AI17" s="115"/>
-      <c r="AJ17" s="115"/>
-      <c r="AK17" s="115"/>
-      <c r="AL17" s="115"/>
-      <c r="AM17" s="115"/>
-      <c r="AN17" s="115"/>
-      <c r="AO17" s="115"/>
-      <c r="AP17" s="115"/>
-      <c r="AQ17" s="115"/>
-      <c r="AR17" s="115"/>
-      <c r="AS17" s="115"/>
-      <c r="AT17" s="115"/>
-      <c r="AU17" s="115"/>
-      <c r="AV17" s="115"/>
-      <c r="AW17" s="115"/>
-      <c r="AX17" s="115"/>
-      <c r="AY17" s="115"/>
-      <c r="AZ17" s="116"/>
-      <c r="BA17" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB17" s="106"/>
-      <c r="BC17" s="106"/>
-      <c r="BD17" s="106"/>
-      <c r="BE17" s="106"/>
-      <c r="BF17" s="106"/>
-      <c r="BG17" s="106"/>
-      <c r="BH17" s="107"/>
+      <c r="AE17" s="112"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="114"/>
+      <c r="BA17" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB17" s="104"/>
+      <c r="BC17" s="104"/>
+      <c r="BD17" s="104"/>
+      <c r="BE17" s="104"/>
+      <c r="BF17" s="104"/>
+      <c r="BG17" s="104"/>
+      <c r="BH17" s="105"/>
     </row>
     <row r="19" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
@@ -3674,74 +3794,74 @@
       <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="110" t="s">
+      <c r="C20" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110" t="s">
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110" t="s">
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
-      <c r="Z20" s="110"/>
-      <c r="AA20" s="126" t="s">
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="127"/>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="127"/>
-      <c r="AJ20" s="127"/>
-      <c r="AK20" s="127"/>
-      <c r="AL20" s="127"/>
-      <c r="AM20" s="127"/>
-      <c r="AN20" s="127"/>
-      <c r="AO20" s="127"/>
-      <c r="AP20" s="127"/>
-      <c r="AQ20" s="127"/>
-      <c r="AR20" s="127"/>
-      <c r="AS20" s="127"/>
-      <c r="AT20" s="127"/>
-      <c r="AU20" s="127"/>
-      <c r="AV20" s="127"/>
-      <c r="AW20" s="127"/>
-      <c r="AX20" s="127"/>
-      <c r="AY20" s="127"/>
-      <c r="AZ20" s="128"/>
-      <c r="BA20" s="103" t="s">
+      <c r="AB20" s="125"/>
+      <c r="AC20" s="125"/>
+      <c r="AD20" s="125"/>
+      <c r="AE20" s="125"/>
+      <c r="AF20" s="125"/>
+      <c r="AG20" s="125"/>
+      <c r="AH20" s="125"/>
+      <c r="AI20" s="125"/>
+      <c r="AJ20" s="125"/>
+      <c r="AK20" s="125"/>
+      <c r="AL20" s="125"/>
+      <c r="AM20" s="125"/>
+      <c r="AN20" s="125"/>
+      <c r="AO20" s="125"/>
+      <c r="AP20" s="125"/>
+      <c r="AQ20" s="125"/>
+      <c r="AR20" s="125"/>
+      <c r="AS20" s="125"/>
+      <c r="AT20" s="125"/>
+      <c r="AU20" s="125"/>
+      <c r="AV20" s="125"/>
+      <c r="AW20" s="125"/>
+      <c r="AX20" s="125"/>
+      <c r="AY20" s="125"/>
+      <c r="AZ20" s="126"/>
+      <c r="BA20" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="BB20" s="103"/>
-      <c r="BC20" s="103"/>
-      <c r="BD20" s="103"/>
-      <c r="BE20" s="103"/>
-      <c r="BF20" s="103"/>
-      <c r="BG20" s="103"/>
-      <c r="BH20" s="104"/>
+      <c r="BB20" s="101"/>
+      <c r="BC20" s="101"/>
+      <c r="BD20" s="101"/>
+      <c r="BE20" s="101"/>
+      <c r="BF20" s="101"/>
+      <c r="BG20" s="101"/>
+      <c r="BH20" s="102"/>
       <c r="BI20" s="18"/>
       <c r="BJ20" s="4"/>
       <c r="BK20" s="1"/>
@@ -3947,74 +4067,74 @@
       <c r="B21" s="14">
         <v>1</v>
       </c>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="121" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="122" t="s">
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="123" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="124"/>
-      <c r="AK21" s="124"/>
-      <c r="AL21" s="124"/>
-      <c r="AM21" s="124"/>
-      <c r="AN21" s="124"/>
-      <c r="AO21" s="124"/>
-      <c r="AP21" s="124"/>
-      <c r="AQ21" s="124"/>
-      <c r="AR21" s="124"/>
-      <c r="AS21" s="124"/>
-      <c r="AT21" s="124"/>
-      <c r="AU21" s="124"/>
-      <c r="AV21" s="124"/>
-      <c r="AW21" s="124"/>
-      <c r="AX21" s="124"/>
-      <c r="AY21" s="124"/>
-      <c r="AZ21" s="125"/>
-      <c r="BA21" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB21" s="106"/>
-      <c r="BC21" s="106"/>
-      <c r="BD21" s="106"/>
-      <c r="BE21" s="106"/>
-      <c r="BF21" s="106"/>
-      <c r="BG21" s="106"/>
-      <c r="BH21" s="107"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB21" s="122"/>
+      <c r="AC21" s="122"/>
+      <c r="AD21" s="122"/>
+      <c r="AE21" s="122"/>
+      <c r="AF21" s="122"/>
+      <c r="AG21" s="122"/>
+      <c r="AH21" s="122"/>
+      <c r="AI21" s="122"/>
+      <c r="AJ21" s="122"/>
+      <c r="AK21" s="122"/>
+      <c r="AL21" s="122"/>
+      <c r="AM21" s="122"/>
+      <c r="AN21" s="122"/>
+      <c r="AO21" s="122"/>
+      <c r="AP21" s="122"/>
+      <c r="AQ21" s="122"/>
+      <c r="AR21" s="122"/>
+      <c r="AS21" s="122"/>
+      <c r="AT21" s="122"/>
+      <c r="AU21" s="122"/>
+      <c r="AV21" s="122"/>
+      <c r="AW21" s="122"/>
+      <c r="AX21" s="122"/>
+      <c r="AY21" s="122"/>
+      <c r="AZ21" s="123"/>
+      <c r="BA21" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB21" s="104"/>
+      <c r="BC21" s="104"/>
+      <c r="BD21" s="104"/>
+      <c r="BE21" s="104"/>
+      <c r="BF21" s="104"/>
+      <c r="BG21" s="104"/>
+      <c r="BH21" s="105"/>
       <c r="BI21" s="18"/>
       <c r="BJ21" s="4"/>
       <c r="BK21" s="1"/>
@@ -4220,74 +4340,74 @@
       <c r="B22" s="14">
         <v>2</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="122" t="s">
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="122"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="123" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB22" s="124"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="124"/>
-      <c r="AK22" s="124"/>
-      <c r="AL22" s="124"/>
-      <c r="AM22" s="124"/>
-      <c r="AN22" s="124"/>
-      <c r="AO22" s="124"/>
-      <c r="AP22" s="124"/>
-      <c r="AQ22" s="124"/>
-      <c r="AR22" s="124"/>
-      <c r="AS22" s="124"/>
-      <c r="AT22" s="124"/>
-      <c r="AU22" s="124"/>
-      <c r="AV22" s="124"/>
-      <c r="AW22" s="124"/>
-      <c r="AX22" s="124"/>
-      <c r="AY22" s="124"/>
-      <c r="AZ22" s="125"/>
-      <c r="BA22" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB22" s="106"/>
-      <c r="BC22" s="106"/>
-      <c r="BD22" s="106"/>
-      <c r="BE22" s="106"/>
-      <c r="BF22" s="106"/>
-      <c r="BG22" s="106"/>
-      <c r="BH22" s="107"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="121" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB22" s="122"/>
+      <c r="AC22" s="122"/>
+      <c r="AD22" s="122"/>
+      <c r="AE22" s="122"/>
+      <c r="AF22" s="122"/>
+      <c r="AG22" s="122"/>
+      <c r="AH22" s="122"/>
+      <c r="AI22" s="122"/>
+      <c r="AJ22" s="122"/>
+      <c r="AK22" s="122"/>
+      <c r="AL22" s="122"/>
+      <c r="AM22" s="122"/>
+      <c r="AN22" s="122"/>
+      <c r="AO22" s="122"/>
+      <c r="AP22" s="122"/>
+      <c r="AQ22" s="122"/>
+      <c r="AR22" s="122"/>
+      <c r="AS22" s="122"/>
+      <c r="AT22" s="122"/>
+      <c r="AU22" s="122"/>
+      <c r="AV22" s="122"/>
+      <c r="AW22" s="122"/>
+      <c r="AX22" s="122"/>
+      <c r="AY22" s="122"/>
+      <c r="AZ22" s="123"/>
+      <c r="BA22" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB22" s="104"/>
+      <c r="BC22" s="104"/>
+      <c r="BD22" s="104"/>
+      <c r="BE22" s="104"/>
+      <c r="BF22" s="104"/>
+      <c r="BG22" s="104"/>
+      <c r="BH22" s="105"/>
       <c r="BI22" s="22"/>
       <c r="BJ22" s="4"/>
       <c r="BK22" s="1"/>
@@ -4580,10 +4700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IY59"/>
+  <dimension ref="A1:IY64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4593,86 +4713,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="92" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="94" t="str">
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="92" t="str">
         <f>クラス仕様!R1</f>
         <v>商品検索</v>
       </c>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="92" t="s">
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="94"/>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="94"/>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="94"/>
-      <c r="AO1" s="94"/>
-      <c r="AP1" s="94"/>
-      <c r="AQ1" s="92" t="s">
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="92"/>
-      <c r="AS1" s="92"/>
-      <c r="AT1" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU1" s="94"/>
-      <c r="AV1" s="94"/>
-      <c r="AW1" s="94"/>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="94"/>
-      <c r="AZ1" s="94"/>
-      <c r="BA1" s="92" t="s">
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="92"/>
-      <c r="BC1" s="92"/>
-      <c r="BD1" s="100">
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="98">
         <v>45909</v>
       </c>
-      <c r="BE1" s="100"/>
-      <c r="BF1" s="100"/>
-      <c r="BG1" s="100"/>
-      <c r="BH1" s="100"/>
-      <c r="BI1" s="100"/>
+      <c r="BE1" s="98"/>
+      <c r="BF1" s="98"/>
+      <c r="BG1" s="98"/>
+      <c r="BH1" s="98"/>
+      <c r="BI1" s="98"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -4872,78 +4992,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="92" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="92" t="s">
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="94" t="str">
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="92" t="str">
         <f>クラス仕様!G6</f>
         <v>MainService</v>
       </c>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="92" t="s">
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="92" t="s">
+      <c r="AR2" s="90"/>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="92"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="92"/>
-      <c r="BC2" s="92"/>
-      <c r="BD2" s="100"/>
-      <c r="BE2" s="100"/>
-      <c r="BF2" s="100"/>
-      <c r="BG2" s="100"/>
-      <c r="BH2" s="100"/>
-      <c r="BI2" s="100"/>
+      <c r="BB2" s="90"/>
+      <c r="BC2" s="90"/>
+      <c r="BD2" s="98"/>
+      <c r="BE2" s="98"/>
+      <c r="BF2" s="98"/>
+      <c r="BG2" s="98"/>
+      <c r="BH2" s="98"/>
+      <c r="BI2" s="98"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -5143,72 +5263,72 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="136" t="str">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="132" t="str">
         <f>クラス仕様!AG17</f>
         <v>カテゴリデータとカラーデータを取得</v>
       </c>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="136"/>
-      <c r="AT4" s="136"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="136"/>
-      <c r="BA4" s="136"/>
-      <c r="BB4" s="136"/>
-      <c r="BC4" s="136"/>
-      <c r="BD4" s="136"/>
-      <c r="BE4" s="136"/>
-      <c r="BF4" s="136"/>
-      <c r="BG4" s="136"/>
-      <c r="BH4" s="136"/>
-      <c r="BI4" s="136"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132"/>
+      <c r="AK4" s="132"/>
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="132"/>
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="132"/>
+      <c r="AS4" s="132"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="132"/>
+      <c r="AW4" s="132"/>
+      <c r="AX4" s="132"/>
+      <c r="AY4" s="132"/>
+      <c r="AZ4" s="132"/>
+      <c r="BA4" s="132"/>
+      <c r="BB4" s="132"/>
+      <c r="BC4" s="132"/>
+      <c r="BD4" s="132"/>
+      <c r="BE4" s="132"/>
+      <c r="BF4" s="132"/>
+      <c r="BG4" s="132"/>
+      <c r="BH4" s="132"/>
+      <c r="BI4" s="132"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -5408,71 +5528,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="140" t="s">
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="140"/>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="140"/>
-      <c r="AD5" s="140"/>
-      <c r="AE5" s="140"/>
-      <c r="AF5" s="140"/>
-      <c r="AG5" s="140"/>
-      <c r="AH5" s="140"/>
-      <c r="AI5" s="140"/>
-      <c r="AJ5" s="140"/>
-      <c r="AK5" s="140"/>
-      <c r="AL5" s="140"/>
-      <c r="AM5" s="140"/>
-      <c r="AN5" s="140"/>
-      <c r="AO5" s="140"/>
-      <c r="AP5" s="140"/>
-      <c r="AQ5" s="140"/>
-      <c r="AR5" s="140"/>
-      <c r="AS5" s="140"/>
-      <c r="AT5" s="140"/>
-      <c r="AU5" s="140"/>
-      <c r="AV5" s="140"/>
-      <c r="AW5" s="140"/>
-      <c r="AX5" s="140"/>
-      <c r="AY5" s="140"/>
-      <c r="AZ5" s="140"/>
-      <c r="BA5" s="140"/>
-      <c r="BB5" s="140"/>
-      <c r="BC5" s="140"/>
-      <c r="BD5" s="140"/>
-      <c r="BE5" s="140"/>
-      <c r="BF5" s="140"/>
-      <c r="BG5" s="140"/>
-      <c r="BH5" s="140"/>
-      <c r="BI5" s="140"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="139"/>
+      <c r="U5" s="139"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="139"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="139"/>
+      <c r="Z5" s="139"/>
+      <c r="AA5" s="139"/>
+      <c r="AB5" s="139"/>
+      <c r="AC5" s="139"/>
+      <c r="AD5" s="139"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="139"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="139"/>
+      <c r="AJ5" s="139"/>
+      <c r="AK5" s="139"/>
+      <c r="AL5" s="139"/>
+      <c r="AM5" s="139"/>
+      <c r="AN5" s="139"/>
+      <c r="AO5" s="139"/>
+      <c r="AP5" s="139"/>
+      <c r="AQ5" s="139"/>
+      <c r="AR5" s="139"/>
+      <c r="AS5" s="139"/>
+      <c r="AT5" s="139"/>
+      <c r="AU5" s="139"/>
+      <c r="AV5" s="139"/>
+      <c r="AW5" s="139"/>
+      <c r="AX5" s="139"/>
+      <c r="AY5" s="139"/>
+      <c r="AZ5" s="139"/>
+      <c r="BA5" s="139"/>
+      <c r="BB5" s="139"/>
+      <c r="BC5" s="139"/>
+      <c r="BD5" s="139"/>
+      <c r="BE5" s="139"/>
+      <c r="BF5" s="139"/>
+      <c r="BG5" s="139"/>
+      <c r="BH5" s="139"/>
+      <c r="BI5" s="139"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -6199,71 +6319,71 @@
       <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110" t="s">
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110" t="s">
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110" t="s">
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="110"/>
-      <c r="AG8" s="110"/>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="110"/>
-      <c r="AJ8" s="110"/>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="110"/>
-      <c r="AM8" s="110"/>
-      <c r="AN8" s="110"/>
-      <c r="AO8" s="110"/>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="110"/>
-      <c r="AR8" s="110"/>
-      <c r="AS8" s="110"/>
-      <c r="AT8" s="110"/>
-      <c r="AU8" s="110"/>
-      <c r="AV8" s="110"/>
-      <c r="AW8" s="110"/>
-      <c r="AX8" s="110"/>
-      <c r="AY8" s="110"/>
-      <c r="AZ8" s="110"/>
-      <c r="BA8" s="110"/>
-      <c r="BB8" s="110"/>
-      <c r="BC8" s="110"/>
-      <c r="BD8" s="110"/>
-      <c r="BE8" s="110"/>
-      <c r="BF8" s="110"/>
-      <c r="BG8" s="110"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="108"/>
+      <c r="AJ8" s="108"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="108"/>
+      <c r="AM8" s="108"/>
+      <c r="AN8" s="108"/>
+      <c r="AO8" s="108"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="108"/>
+      <c r="AR8" s="108"/>
+      <c r="AS8" s="108"/>
+      <c r="AT8" s="108"/>
+      <c r="AU8" s="108"/>
+      <c r="AV8" s="108"/>
+      <c r="AW8" s="108"/>
+      <c r="AX8" s="108"/>
+      <c r="AY8" s="108"/>
+      <c r="AZ8" s="108"/>
+      <c r="BA8" s="108"/>
+      <c r="BB8" s="108"/>
+      <c r="BC8" s="108"/>
+      <c r="BD8" s="108"/>
+      <c r="BE8" s="108"/>
+      <c r="BF8" s="108"/>
+      <c r="BG8" s="108"/>
       <c r="BH8" s="22"/>
       <c r="BI8" s="18"/>
       <c r="BJ8" s="4"/>
@@ -6470,71 +6590,71 @@
       <c r="B9" s="14">
         <v>1</v>
       </c>
-      <c r="C9" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="141" t="s">
-        <v>51</v>
-      </c>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="142" t="s">
+      <c r="C9" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="120"/>
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="142"/>
-      <c r="AD9" s="142"/>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="142"/>
-      <c r="AG9" s="142"/>
-      <c r="AH9" s="142"/>
-      <c r="AI9" s="142"/>
-      <c r="AJ9" s="142"/>
-      <c r="AK9" s="142"/>
-      <c r="AL9" s="142"/>
-      <c r="AM9" s="142"/>
-      <c r="AN9" s="142"/>
-      <c r="AO9" s="142"/>
-      <c r="AP9" s="142"/>
-      <c r="AQ9" s="142"/>
-      <c r="AR9" s="142"/>
-      <c r="AS9" s="142"/>
-      <c r="AT9" s="142"/>
-      <c r="AU9" s="142"/>
-      <c r="AV9" s="142"/>
-      <c r="AW9" s="142"/>
-      <c r="AX9" s="142"/>
-      <c r="AY9" s="142"/>
-      <c r="AZ9" s="142"/>
-      <c r="BA9" s="142"/>
-      <c r="BB9" s="142"/>
-      <c r="BC9" s="142"/>
-      <c r="BD9" s="142"/>
-      <c r="BE9" s="142"/>
-      <c r="BF9" s="142"/>
-      <c r="BG9" s="142"/>
+      <c r="AB9" s="141"/>
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="141"/>
+      <c r="AE9" s="141"/>
+      <c r="AF9" s="141"/>
+      <c r="AG9" s="141"/>
+      <c r="AH9" s="141"/>
+      <c r="AI9" s="141"/>
+      <c r="AJ9" s="141"/>
+      <c r="AK9" s="141"/>
+      <c r="AL9" s="141"/>
+      <c r="AM9" s="141"/>
+      <c r="AN9" s="141"/>
+      <c r="AO9" s="141"/>
+      <c r="AP9" s="141"/>
+      <c r="AQ9" s="141"/>
+      <c r="AR9" s="141"/>
+      <c r="AS9" s="141"/>
+      <c r="AT9" s="141"/>
+      <c r="AU9" s="141"/>
+      <c r="AV9" s="141"/>
+      <c r="AW9" s="141"/>
+      <c r="AX9" s="141"/>
+      <c r="AY9" s="141"/>
+      <c r="AZ9" s="141"/>
+      <c r="BA9" s="141"/>
+      <c r="BB9" s="141"/>
+      <c r="BC9" s="141"/>
+      <c r="BD9" s="141"/>
+      <c r="BE9" s="141"/>
+      <c r="BF9" s="141"/>
+      <c r="BG9" s="141"/>
       <c r="BH9" s="22"/>
       <c r="BI9" s="18"/>
       <c r="BJ9" s="4"/>
@@ -7265,71 +7385,71 @@
       <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110" t="s">
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110" t="s">
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110" t="s">
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="110"/>
-      <c r="AI12" s="110"/>
-      <c r="AJ12" s="110"/>
-      <c r="AK12" s="110"/>
-      <c r="AL12" s="110"/>
-      <c r="AM12" s="110"/>
-      <c r="AN12" s="110"/>
-      <c r="AO12" s="110"/>
-      <c r="AP12" s="110"/>
-      <c r="AQ12" s="110"/>
-      <c r="AR12" s="110"/>
-      <c r="AS12" s="110"/>
-      <c r="AT12" s="110"/>
-      <c r="AU12" s="110"/>
-      <c r="AV12" s="110"/>
-      <c r="AW12" s="110"/>
-      <c r="AX12" s="110"/>
-      <c r="AY12" s="110"/>
-      <c r="AZ12" s="110"/>
-      <c r="BA12" s="110"/>
-      <c r="BB12" s="110"/>
-      <c r="BC12" s="110"/>
-      <c r="BD12" s="110"/>
-      <c r="BE12" s="110"/>
-      <c r="BF12" s="110"/>
-      <c r="BG12" s="110"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="108"/>
+      <c r="AG12" s="108"/>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="108"/>
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="108"/>
+      <c r="AL12" s="108"/>
+      <c r="AM12" s="108"/>
+      <c r="AN12" s="108"/>
+      <c r="AO12" s="108"/>
+      <c r="AP12" s="108"/>
+      <c r="AQ12" s="108"/>
+      <c r="AR12" s="108"/>
+      <c r="AS12" s="108"/>
+      <c r="AT12" s="108"/>
+      <c r="AU12" s="108"/>
+      <c r="AV12" s="108"/>
+      <c r="AW12" s="108"/>
+      <c r="AX12" s="108"/>
+      <c r="AY12" s="108"/>
+      <c r="AZ12" s="108"/>
+      <c r="BA12" s="108"/>
+      <c r="BB12" s="108"/>
+      <c r="BC12" s="108"/>
+      <c r="BD12" s="108"/>
+      <c r="BE12" s="108"/>
+      <c r="BF12" s="108"/>
+      <c r="BG12" s="108"/>
       <c r="BH12" s="22"/>
       <c r="BI12" s="18"/>
       <c r="BJ12" s="4"/>
@@ -7536,71 +7656,71 @@
       <c r="B13" s="14">
         <v>1</v>
       </c>
-      <c r="C13" s="122" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122" t="s">
-        <v>90</v>
-      </c>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="143" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB13" s="143"/>
-      <c r="AC13" s="143"/>
-      <c r="AD13" s="143"/>
-      <c r="AE13" s="143"/>
-      <c r="AF13" s="143"/>
-      <c r="AG13" s="143"/>
-      <c r="AH13" s="143"/>
-      <c r="AI13" s="143"/>
-      <c r="AJ13" s="143"/>
-      <c r="AK13" s="143"/>
-      <c r="AL13" s="143"/>
-      <c r="AM13" s="143"/>
-      <c r="AN13" s="143"/>
-      <c r="AO13" s="143"/>
-      <c r="AP13" s="143"/>
-      <c r="AQ13" s="143"/>
-      <c r="AR13" s="143"/>
-      <c r="AS13" s="143"/>
-      <c r="AT13" s="143"/>
-      <c r="AU13" s="143"/>
-      <c r="AV13" s="143"/>
-      <c r="AW13" s="143"/>
-      <c r="AX13" s="143"/>
-      <c r="AY13" s="143"/>
-      <c r="AZ13" s="143"/>
-      <c r="BA13" s="143"/>
-      <c r="BB13" s="143"/>
-      <c r="BC13" s="143"/>
-      <c r="BD13" s="143"/>
-      <c r="BE13" s="143"/>
-      <c r="BF13" s="143"/>
-      <c r="BG13" s="143"/>
+      <c r="C13" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="142"/>
+      <c r="AD13" s="142"/>
+      <c r="AE13" s="142"/>
+      <c r="AF13" s="142"/>
+      <c r="AG13" s="142"/>
+      <c r="AH13" s="142"/>
+      <c r="AI13" s="142"/>
+      <c r="AJ13" s="142"/>
+      <c r="AK13" s="142"/>
+      <c r="AL13" s="142"/>
+      <c r="AM13" s="142"/>
+      <c r="AN13" s="142"/>
+      <c r="AO13" s="142"/>
+      <c r="AP13" s="142"/>
+      <c r="AQ13" s="142"/>
+      <c r="AR13" s="142"/>
+      <c r="AS13" s="142"/>
+      <c r="AT13" s="142"/>
+      <c r="AU13" s="142"/>
+      <c r="AV13" s="142"/>
+      <c r="AW13" s="142"/>
+      <c r="AX13" s="142"/>
+      <c r="AY13" s="142"/>
+      <c r="AZ13" s="142"/>
+      <c r="BA13" s="142"/>
+      <c r="BB13" s="142"/>
+      <c r="BC13" s="142"/>
+      <c r="BD13" s="142"/>
+      <c r="BE13" s="142"/>
+      <c r="BF13" s="142"/>
+      <c r="BG13" s="142"/>
       <c r="BH13" s="22"/>
       <c r="BI13" s="18"/>
       <c r="BJ13" s="4"/>
@@ -8133,77 +8253,77 @@
       <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="103" t="s">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="103" t="s">
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="146" t="s">
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="AB16" s="111"/>
-      <c r="AC16" s="144" t="s">
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="144" t="s">
+      <c r="AD16" s="109"/>
+      <c r="AE16" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="AF16" s="117"/>
-      <c r="AG16" s="117"/>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="117"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="117"/>
-      <c r="AN16" s="117"/>
-      <c r="AO16" s="117"/>
-      <c r="AP16" s="117"/>
-      <c r="AQ16" s="117"/>
-      <c r="AR16" s="117"/>
-      <c r="AS16" s="117"/>
-      <c r="AT16" s="117"/>
-      <c r="AU16" s="117"/>
-      <c r="AV16" s="117"/>
-      <c r="AW16" s="117"/>
-      <c r="AX16" s="117"/>
-      <c r="AY16" s="110" t="s">
+      <c r="AF16" s="115"/>
+      <c r="AG16" s="115"/>
+      <c r="AH16" s="115"/>
+      <c r="AI16" s="115"/>
+      <c r="AJ16" s="115"/>
+      <c r="AK16" s="115"/>
+      <c r="AL16" s="115"/>
+      <c r="AM16" s="115"/>
+      <c r="AN16" s="115"/>
+      <c r="AO16" s="115"/>
+      <c r="AP16" s="115"/>
+      <c r="AQ16" s="115"/>
+      <c r="AR16" s="115"/>
+      <c r="AS16" s="115"/>
+      <c r="AT16" s="115"/>
+      <c r="AU16" s="115"/>
+      <c r="AV16" s="115"/>
+      <c r="AW16" s="115"/>
+      <c r="AX16" s="115"/>
+      <c r="AY16" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="AZ16" s="110"/>
-      <c r="BA16" s="110"/>
-      <c r="BB16" s="110"/>
-      <c r="BC16" s="110"/>
-      <c r="BD16" s="110"/>
-      <c r="BE16" s="110"/>
-      <c r="BF16" s="110"/>
-      <c r="BG16" s="110"/>
+      <c r="AZ16" s="108"/>
+      <c r="BA16" s="108"/>
+      <c r="BB16" s="108"/>
+      <c r="BC16" s="108"/>
+      <c r="BD16" s="108"/>
+      <c r="BE16" s="108"/>
+      <c r="BF16" s="108"/>
+      <c r="BG16" s="108"/>
       <c r="BH16" s="22"/>
       <c r="BI16" s="18"/>
       <c r="BJ16" s="4"/>
@@ -8410,77 +8530,77 @@
       <c r="B17" s="14">
         <v>1</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="132" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB17" s="138"/>
-      <c r="AC17" s="137" t="s">
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="105"/>
+      <c r="AA17" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB17" s="134"/>
+      <c r="AC17" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="AD17" s="138"/>
-      <c r="AE17" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF17" s="115"/>
-      <c r="AG17" s="115"/>
-      <c r="AH17" s="115"/>
-      <c r="AI17" s="115"/>
-      <c r="AJ17" s="115"/>
-      <c r="AK17" s="115"/>
-      <c r="AL17" s="115"/>
-      <c r="AM17" s="115"/>
-      <c r="AN17" s="115"/>
-      <c r="AO17" s="115"/>
-      <c r="AP17" s="115"/>
-      <c r="AQ17" s="115"/>
-      <c r="AR17" s="115"/>
-      <c r="AS17" s="115"/>
-      <c r="AT17" s="115"/>
-      <c r="AU17" s="115"/>
-      <c r="AV17" s="115"/>
-      <c r="AW17" s="115"/>
-      <c r="AX17" s="115"/>
-      <c r="AY17" s="145" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ17" s="113"/>
-      <c r="BA17" s="113"/>
-      <c r="BB17" s="113"/>
-      <c r="BC17" s="113"/>
-      <c r="BD17" s="113"/>
-      <c r="BE17" s="113"/>
-      <c r="BF17" s="113"/>
-      <c r="BG17" s="113"/>
+      <c r="AD17" s="134"/>
+      <c r="AE17" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ17" s="111"/>
+      <c r="BA17" s="111"/>
+      <c r="BB17" s="111"/>
+      <c r="BC17" s="111"/>
+      <c r="BD17" s="111"/>
+      <c r="BE17" s="111"/>
+      <c r="BF17" s="111"/>
+      <c r="BG17" s="111"/>
       <c r="BH17" s="22"/>
       <c r="BI17" s="18"/>
       <c r="BJ17" s="4"/>
@@ -8684,80 +8804,80 @@
     </row>
     <row r="18" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="14">
+      <c r="B18" s="147">
         <v>2</v>
       </c>
-      <c r="C18" s="136" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB18" s="138"/>
-      <c r="AC18" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD18" s="138"/>
-      <c r="AE18" s="132" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF18" s="115"/>
-      <c r="AG18" s="115"/>
-      <c r="AH18" s="115"/>
-      <c r="AI18" s="115"/>
-      <c r="AJ18" s="115"/>
-      <c r="AK18" s="115"/>
-      <c r="AL18" s="115"/>
-      <c r="AM18" s="115"/>
-      <c r="AN18" s="115"/>
-      <c r="AO18" s="115"/>
-      <c r="AP18" s="115"/>
-      <c r="AQ18" s="115"/>
-      <c r="AR18" s="115"/>
-      <c r="AS18" s="115"/>
-      <c r="AT18" s="115"/>
-      <c r="AU18" s="115"/>
-      <c r="AV18" s="115"/>
-      <c r="AW18" s="115"/>
-      <c r="AX18" s="115"/>
-      <c r="AY18" s="145" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ18" s="113"/>
-      <c r="BA18" s="113"/>
-      <c r="BB18" s="113"/>
-      <c r="BC18" s="113"/>
-      <c r="BD18" s="113"/>
-      <c r="BE18" s="113"/>
-      <c r="BF18" s="113"/>
-      <c r="BG18" s="113"/>
+      <c r="C18" s="148" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="152"/>
+      <c r="S18" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="151"/>
+      <c r="Y18" s="151"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB18" s="154"/>
+      <c r="AC18" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD18" s="154"/>
+      <c r="AE18" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF18" s="156"/>
+      <c r="AG18" s="156"/>
+      <c r="AH18" s="156"/>
+      <c r="AI18" s="156"/>
+      <c r="AJ18" s="156"/>
+      <c r="AK18" s="156"/>
+      <c r="AL18" s="156"/>
+      <c r="AM18" s="156"/>
+      <c r="AN18" s="156"/>
+      <c r="AO18" s="156"/>
+      <c r="AP18" s="156"/>
+      <c r="AQ18" s="156"/>
+      <c r="AR18" s="156"/>
+      <c r="AS18" s="156"/>
+      <c r="AT18" s="156"/>
+      <c r="AU18" s="156"/>
+      <c r="AV18" s="156"/>
+      <c r="AW18" s="156"/>
+      <c r="AX18" s="156"/>
+      <c r="AY18" s="157" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ18" s="158"/>
+      <c r="BA18" s="158"/>
+      <c r="BB18" s="158"/>
+      <c r="BC18" s="158"/>
+      <c r="BD18" s="158"/>
+      <c r="BE18" s="158"/>
+      <c r="BF18" s="158"/>
+      <c r="BG18" s="158"/>
       <c r="BH18" s="22"/>
       <c r="BI18" s="18"/>
       <c r="BJ18" s="4"/>
@@ -8961,80 +9081,80 @@
     </row>
     <row r="19" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="14">
+      <c r="B19" s="147">
         <v>3</v>
       </c>
-      <c r="C19" s="136" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB19" s="138"/>
-      <c r="AC19" s="148" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD19" s="138"/>
-      <c r="AE19" s="132" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF19" s="115"/>
-      <c r="AG19" s="115"/>
-      <c r="AH19" s="115"/>
-      <c r="AI19" s="115"/>
-      <c r="AJ19" s="115"/>
-      <c r="AK19" s="115"/>
-      <c r="AL19" s="115"/>
-      <c r="AM19" s="115"/>
-      <c r="AN19" s="115"/>
-      <c r="AO19" s="115"/>
-      <c r="AP19" s="115"/>
-      <c r="AQ19" s="115"/>
-      <c r="AR19" s="115"/>
-      <c r="AS19" s="115"/>
-      <c r="AT19" s="115"/>
-      <c r="AU19" s="115"/>
-      <c r="AV19" s="115"/>
-      <c r="AW19" s="115"/>
-      <c r="AX19" s="115"/>
-      <c r="AY19" s="133" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ19" s="134"/>
-      <c r="BA19" s="134"/>
-      <c r="BB19" s="134"/>
-      <c r="BC19" s="134"/>
-      <c r="BD19" s="134"/>
-      <c r="BE19" s="134"/>
-      <c r="BF19" s="134"/>
-      <c r="BG19" s="135"/>
+      <c r="C19" s="148" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="152"/>
+      <c r="S19" s="151" t="s">
+        <v>101</v>
+      </c>
+      <c r="T19" s="151"/>
+      <c r="U19" s="151"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="151"/>
+      <c r="Y19" s="151"/>
+      <c r="Z19" s="152"/>
+      <c r="AA19" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB19" s="154"/>
+      <c r="AC19" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD19" s="154"/>
+      <c r="AE19" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF19" s="156"/>
+      <c r="AG19" s="156"/>
+      <c r="AH19" s="156"/>
+      <c r="AI19" s="156"/>
+      <c r="AJ19" s="156"/>
+      <c r="AK19" s="156"/>
+      <c r="AL19" s="156"/>
+      <c r="AM19" s="156"/>
+      <c r="AN19" s="156"/>
+      <c r="AO19" s="156"/>
+      <c r="AP19" s="156"/>
+      <c r="AQ19" s="156"/>
+      <c r="AR19" s="156"/>
+      <c r="AS19" s="156"/>
+      <c r="AT19" s="156"/>
+      <c r="AU19" s="156"/>
+      <c r="AV19" s="156"/>
+      <c r="AW19" s="156"/>
+      <c r="AX19" s="156"/>
+      <c r="AY19" s="157" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ19" s="158"/>
+      <c r="BA19" s="158"/>
+      <c r="BB19" s="158"/>
+      <c r="BC19" s="158"/>
+      <c r="BD19" s="158"/>
+      <c r="BE19" s="158"/>
+      <c r="BF19" s="158"/>
+      <c r="BG19" s="158"/>
       <c r="BH19" s="22"/>
       <c r="BI19" s="18"/>
       <c r="BJ19" s="4"/>
@@ -9241,77 +9361,77 @@
       <c r="B20" s="14">
         <v>4</v>
       </c>
-      <c r="C20" s="136" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="106" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB20" s="138"/>
-      <c r="AC20" s="137" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD20" s="138"/>
-      <c r="AE20" s="132" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF20" s="115"/>
-      <c r="AG20" s="115"/>
-      <c r="AH20" s="115"/>
-      <c r="AI20" s="115"/>
-      <c r="AJ20" s="115"/>
-      <c r="AK20" s="115"/>
-      <c r="AL20" s="115"/>
-      <c r="AM20" s="115"/>
-      <c r="AN20" s="115"/>
-      <c r="AO20" s="115"/>
-      <c r="AP20" s="115"/>
-      <c r="AQ20" s="115"/>
-      <c r="AR20" s="115"/>
-      <c r="AS20" s="115"/>
-      <c r="AT20" s="115"/>
-      <c r="AU20" s="115"/>
-      <c r="AV20" s="115"/>
-      <c r="AW20" s="115"/>
-      <c r="AX20" s="115"/>
-      <c r="AY20" s="133" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ20" s="134"/>
-      <c r="BA20" s="134"/>
-      <c r="BB20" s="134"/>
-      <c r="BC20" s="134"/>
-      <c r="BD20" s="134"/>
-      <c r="BE20" s="134"/>
-      <c r="BF20" s="134"/>
-      <c r="BG20" s="135"/>
+      <c r="C20" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="105"/>
+      <c r="AA20" s="133" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD20" s="134"/>
+      <c r="AE20" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="113"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="113"/>
+      <c r="AO20" s="113"/>
+      <c r="AP20" s="113"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="113"/>
+      <c r="AU20" s="113"/>
+      <c r="AV20" s="113"/>
+      <c r="AW20" s="113"/>
+      <c r="AX20" s="113"/>
+      <c r="AY20" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ20" s="111"/>
+      <c r="BA20" s="111"/>
+      <c r="BB20" s="111"/>
+      <c r="BC20" s="111"/>
+      <c r="BD20" s="111"/>
+      <c r="BE20" s="111"/>
+      <c r="BF20" s="111"/>
+      <c r="BG20" s="111"/>
       <c r="BH20" s="22"/>
       <c r="BI20" s="18"/>
       <c r="BJ20" s="4"/>
@@ -9518,77 +9638,77 @@
       <c r="B21" s="14">
         <v>5</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB21" s="138"/>
-      <c r="AC21" s="137" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD21" s="138"/>
-      <c r="AE21" s="132" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF21" s="115"/>
-      <c r="AG21" s="115"/>
-      <c r="AH21" s="115"/>
-      <c r="AI21" s="115"/>
-      <c r="AJ21" s="115"/>
-      <c r="AK21" s="115"/>
-      <c r="AL21" s="115"/>
-      <c r="AM21" s="115"/>
-      <c r="AN21" s="115"/>
-      <c r="AO21" s="115"/>
-      <c r="AP21" s="115"/>
-      <c r="AQ21" s="115"/>
-      <c r="AR21" s="115"/>
-      <c r="AS21" s="115"/>
-      <c r="AT21" s="115"/>
-      <c r="AU21" s="115"/>
-      <c r="AV21" s="115"/>
-      <c r="AW21" s="115"/>
-      <c r="AX21" s="115"/>
-      <c r="AY21" s="133" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ21" s="134"/>
-      <c r="BA21" s="134"/>
-      <c r="BB21" s="134"/>
-      <c r="BC21" s="134"/>
-      <c r="BD21" s="134"/>
-      <c r="BE21" s="134"/>
-      <c r="BF21" s="134"/>
-      <c r="BG21" s="135"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="133" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB21" s="134"/>
+      <c r="AC21" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD21" s="134"/>
+      <c r="AE21" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="113"/>
+      <c r="AP21" s="113"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="113"/>
+      <c r="AS21" s="113"/>
+      <c r="AT21" s="113"/>
+      <c r="AU21" s="113"/>
+      <c r="AV21" s="113"/>
+      <c r="AW21" s="113"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ21" s="136"/>
+      <c r="BA21" s="136"/>
+      <c r="BB21" s="136"/>
+      <c r="BC21" s="136"/>
+      <c r="BD21" s="136"/>
+      <c r="BE21" s="136"/>
+      <c r="BF21" s="136"/>
+      <c r="BG21" s="137"/>
       <c r="BH21" s="22"/>
       <c r="BI21" s="18"/>
       <c r="BJ21" s="4"/>
@@ -9795,77 +9915,77 @@
       <c r="B22" s="14">
         <v>6</v>
       </c>
-      <c r="C22" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="137" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB22" s="138"/>
-      <c r="AC22" s="137" t="s">
+      <c r="C22" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="AD22" s="138"/>
-      <c r="AE22" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF22" s="115"/>
-      <c r="AG22" s="115"/>
-      <c r="AH22" s="115"/>
-      <c r="AI22" s="115"/>
-      <c r="AJ22" s="115"/>
-      <c r="AK22" s="115"/>
-      <c r="AL22" s="115"/>
-      <c r="AM22" s="115"/>
-      <c r="AN22" s="115"/>
-      <c r="AO22" s="115"/>
-      <c r="AP22" s="115"/>
-      <c r="AQ22" s="115"/>
-      <c r="AR22" s="115"/>
-      <c r="AS22" s="115"/>
-      <c r="AT22" s="115"/>
-      <c r="AU22" s="115"/>
-      <c r="AV22" s="115"/>
-      <c r="AW22" s="115"/>
-      <c r="AX22" s="115"/>
-      <c r="AY22" s="133" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ22" s="134"/>
-      <c r="BA22" s="134"/>
-      <c r="BB22" s="134"/>
-      <c r="BC22" s="134"/>
-      <c r="BD22" s="134"/>
-      <c r="BE22" s="134"/>
-      <c r="BF22" s="134"/>
-      <c r="BG22" s="135"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="105"/>
+      <c r="AA22" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB22" s="134"/>
+      <c r="AC22" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="130" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="113"/>
+      <c r="AS22" s="113"/>
+      <c r="AT22" s="113"/>
+      <c r="AU22" s="113"/>
+      <c r="AV22" s="113"/>
+      <c r="AW22" s="113"/>
+      <c r="AX22" s="113"/>
+      <c r="AY22" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ22" s="136"/>
+      <c r="BA22" s="136"/>
+      <c r="BB22" s="136"/>
+      <c r="BC22" s="136"/>
+      <c r="BD22" s="136"/>
+      <c r="BE22" s="136"/>
+      <c r="BF22" s="136"/>
+      <c r="BG22" s="137"/>
       <c r="BH22" s="22"/>
       <c r="BI22" s="18"/>
       <c r="BJ22" s="4"/>
@@ -10069,64 +10189,80 @@
     </row>
     <row r="23" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="60"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="58"/>
-      <c r="AG23" s="58"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="58"/>
-      <c r="AN23" s="58"/>
-      <c r="AO23" s="58"/>
-      <c r="AP23" s="58"/>
-      <c r="AQ23" s="58"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23" s="58"/>
-      <c r="AW23" s="58"/>
-      <c r="AX23" s="58"/>
-      <c r="AY23" s="59"/>
-      <c r="AZ23" s="59"/>
-      <c r="BA23" s="59"/>
-      <c r="BB23" s="59"/>
-      <c r="BC23" s="59"/>
-      <c r="BD23" s="59"/>
-      <c r="BE23" s="59"/>
-      <c r="BF23" s="59"/>
-      <c r="BG23" s="59"/>
+      <c r="B23" s="14">
+        <v>7</v>
+      </c>
+      <c r="C23" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="105"/>
+      <c r="AA23" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB23" s="134"/>
+      <c r="AC23" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD23" s="134"/>
+      <c r="AE23" s="130" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="113"/>
+      <c r="AJ23" s="113"/>
+      <c r="AK23" s="113"/>
+      <c r="AL23" s="113"/>
+      <c r="AM23" s="113"/>
+      <c r="AN23" s="113"/>
+      <c r="AO23" s="113"/>
+      <c r="AP23" s="113"/>
+      <c r="AQ23" s="113"/>
+      <c r="AR23" s="113"/>
+      <c r="AS23" s="113"/>
+      <c r="AT23" s="113"/>
+      <c r="AU23" s="113"/>
+      <c r="AV23" s="113"/>
+      <c r="AW23" s="113"/>
+      <c r="AX23" s="113"/>
+      <c r="AY23" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ23" s="136"/>
+      <c r="BA23" s="136"/>
+      <c r="BB23" s="136"/>
+      <c r="BC23" s="136"/>
+      <c r="BD23" s="136"/>
+      <c r="BE23" s="136"/>
+      <c r="BF23" s="136"/>
+      <c r="BG23" s="137"/>
       <c r="BH23" s="22"/>
       <c r="BI23" s="18"/>
       <c r="BJ23" s="4"/>
@@ -10330,69 +10466,83 @@
     </row>
     <row r="24" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
-      <c r="AN24" s="16"/>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="16"/>
-      <c r="AS24" s="16"/>
-      <c r="AT24" s="16"/>
-      <c r="AU24" s="16"/>
-      <c r="AV24" s="16"/>
-      <c r="AW24" s="16"/>
-      <c r="AX24" s="16"/>
-      <c r="AY24" s="16"/>
-      <c r="AZ24" s="16"/>
-      <c r="BA24" s="16"/>
-      <c r="BB24" s="16"/>
-      <c r="BC24" s="16"/>
-      <c r="BD24" s="16"/>
-      <c r="BE24" s="16"/>
-      <c r="BF24" s="16"/>
-      <c r="BG24" s="16"/>
-      <c r="BH24" s="16"/>
-      <c r="BI24" s="17"/>
-      <c r="BJ24" s="16"/>
+      <c r="B24" s="14">
+        <v>8</v>
+      </c>
+      <c r="C24" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="133" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF24" s="113"/>
+      <c r="AG24" s="113"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="113"/>
+      <c r="AJ24" s="113"/>
+      <c r="AK24" s="113"/>
+      <c r="AL24" s="113"/>
+      <c r="AM24" s="113"/>
+      <c r="AN24" s="113"/>
+      <c r="AO24" s="113"/>
+      <c r="AP24" s="113"/>
+      <c r="AQ24" s="113"/>
+      <c r="AR24" s="113"/>
+      <c r="AS24" s="113"/>
+      <c r="AT24" s="113"/>
+      <c r="AU24" s="113"/>
+      <c r="AV24" s="113"/>
+      <c r="AW24" s="113"/>
+      <c r="AX24" s="113"/>
+      <c r="AY24" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ24" s="136"/>
+      <c r="BA24" s="136"/>
+      <c r="BB24" s="136"/>
+      <c r="BC24" s="136"/>
+      <c r="BD24" s="136"/>
+      <c r="BE24" s="136"/>
+      <c r="BF24" s="136"/>
+      <c r="BG24" s="137"/>
+      <c r="BH24" s="22"/>
+      <c r="BI24" s="18"/>
+      <c r="BJ24" s="4"/>
       <c r="BK24" s="1"/>
       <c r="BL24" s="1"/>
       <c r="BM24" s="1"/>
@@ -10593,74 +10743,64 @@
     </row>
     <row r="25" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="B25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="110" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="T25" s="110"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="110"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="110"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="110"/>
-      <c r="AI25" s="110"/>
-      <c r="AJ25" s="110"/>
-      <c r="AK25" s="110"/>
-      <c r="AL25" s="110"/>
-      <c r="AM25" s="110"/>
-      <c r="AN25" s="110"/>
-      <c r="AO25" s="110"/>
-      <c r="AP25" s="110"/>
-      <c r="AQ25" s="110"/>
-      <c r="AR25" s="110"/>
-      <c r="AS25" s="110"/>
-      <c r="AT25" s="110"/>
-      <c r="AU25" s="110"/>
-      <c r="AV25" s="110"/>
-      <c r="AW25" s="110"/>
-      <c r="AX25" s="110"/>
-      <c r="AY25" s="110"/>
-      <c r="AZ25" s="110"/>
-      <c r="BA25" s="110"/>
-      <c r="BB25" s="110"/>
-      <c r="BC25" s="110"/>
-      <c r="BD25" s="110"/>
-      <c r="BE25" s="110"/>
-      <c r="BF25" s="110"/>
-      <c r="BG25" s="110"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="88"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="89"/>
+      <c r="AG25" s="89"/>
+      <c r="AH25" s="89"/>
+      <c r="AI25" s="89"/>
+      <c r="AJ25" s="89"/>
+      <c r="AK25" s="89"/>
+      <c r="AL25" s="89"/>
+      <c r="AM25" s="89"/>
+      <c r="AN25" s="89"/>
+      <c r="AO25" s="89"/>
+      <c r="AP25" s="89"/>
+      <c r="AQ25" s="89"/>
+      <c r="AR25" s="89"/>
+      <c r="AS25" s="89"/>
+      <c r="AT25" s="89"/>
+      <c r="AU25" s="89"/>
+      <c r="AV25" s="89"/>
+      <c r="AW25" s="89"/>
+      <c r="AX25" s="89"/>
+      <c r="AY25" s="89"/>
+      <c r="AZ25" s="89"/>
+      <c r="BA25" s="89"/>
+      <c r="BB25" s="89"/>
+      <c r="BC25" s="89"/>
+      <c r="BD25" s="89"/>
+      <c r="BE25" s="89"/>
+      <c r="BF25" s="89"/>
+      <c r="BG25" s="89"/>
       <c r="BH25" s="22"/>
       <c r="BI25" s="18"/>
       <c r="BJ25" s="4"/>
@@ -10864,74 +11004,66 @@
     </row>
     <row r="26" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
-      <c r="B26" s="14">
-        <v>1</v>
-      </c>
-      <c r="C26" s="118" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="118" t="s">
-        <v>64</v>
-      </c>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="119"/>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="120"/>
-      <c r="AA26" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB26" s="124"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="124"/>
-      <c r="AF26" s="124"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="124"/>
-      <c r="AK26" s="124"/>
-      <c r="AL26" s="124"/>
-      <c r="AM26" s="124"/>
-      <c r="AN26" s="124"/>
-      <c r="AO26" s="124"/>
-      <c r="AP26" s="124"/>
-      <c r="AQ26" s="124"/>
-      <c r="AR26" s="124"/>
-      <c r="AS26" s="124"/>
-      <c r="AT26" s="124"/>
-      <c r="AU26" s="124"/>
-      <c r="AV26" s="124"/>
-      <c r="AW26" s="124"/>
-      <c r="AX26" s="124"/>
-      <c r="AY26" s="124"/>
-      <c r="AZ26" s="124"/>
-      <c r="BA26" s="124"/>
-      <c r="BB26" s="124"/>
-      <c r="BC26" s="124"/>
-      <c r="BD26" s="124"/>
-      <c r="BE26" s="124"/>
-      <c r="BF26" s="124"/>
-      <c r="BG26" s="147"/>
+      <c r="B26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="16"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="16"/>
+      <c r="BE26" s="16"/>
+      <c r="BF26" s="16"/>
+      <c r="BG26" s="16"/>
       <c r="BH26" s="22"/>
       <c r="BI26" s="18"/>
       <c r="BJ26" s="4"/>
@@ -11135,74 +11267,74 @@
     </row>
     <row r="27" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="14">
-        <v>2</v>
-      </c>
-      <c r="C27" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="118" t="s">
-        <v>41</v>
-      </c>
-      <c r="T27" s="119"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="119"/>
-      <c r="W27" s="119"/>
-      <c r="X27" s="119"/>
-      <c r="Y27" s="119"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="123" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB27" s="124"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="124"/>
-      <c r="AF27" s="124"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="124"/>
-      <c r="AJ27" s="124"/>
-      <c r="AK27" s="124"/>
-      <c r="AL27" s="124"/>
-      <c r="AM27" s="124"/>
-      <c r="AN27" s="124"/>
-      <c r="AO27" s="124"/>
-      <c r="AP27" s="124"/>
-      <c r="AQ27" s="124"/>
-      <c r="AR27" s="124"/>
-      <c r="AS27" s="124"/>
-      <c r="AT27" s="124"/>
-      <c r="AU27" s="124"/>
-      <c r="AV27" s="124"/>
-      <c r="AW27" s="124"/>
-      <c r="AX27" s="124"/>
-      <c r="AY27" s="124"/>
-      <c r="AZ27" s="124"/>
-      <c r="BA27" s="124"/>
-      <c r="BB27" s="124"/>
-      <c r="BC27" s="124"/>
-      <c r="BD27" s="124"/>
-      <c r="BE27" s="124"/>
-      <c r="BF27" s="124"/>
-      <c r="BG27" s="147"/>
+      <c r="B27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="108"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="108"/>
+      <c r="AA27" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB27" s="108"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="108"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="108"/>
+      <c r="AG27" s="108"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="108"/>
+      <c r="AJ27" s="108"/>
+      <c r="AK27" s="108"/>
+      <c r="AL27" s="108"/>
+      <c r="AM27" s="108"/>
+      <c r="AN27" s="108"/>
+      <c r="AO27" s="108"/>
+      <c r="AP27" s="108"/>
+      <c r="AQ27" s="108"/>
+      <c r="AR27" s="108"/>
+      <c r="AS27" s="108"/>
+      <c r="AT27" s="108"/>
+      <c r="AU27" s="108"/>
+      <c r="AV27" s="108"/>
+      <c r="AW27" s="108"/>
+      <c r="AX27" s="108"/>
+      <c r="AY27" s="108"/>
+      <c r="AZ27" s="108"/>
+      <c r="BA27" s="108"/>
+      <c r="BB27" s="108"/>
+      <c r="BC27" s="108"/>
+      <c r="BD27" s="108"/>
+      <c r="BE27" s="108"/>
+      <c r="BF27" s="108"/>
+      <c r="BG27" s="108"/>
       <c r="BH27" s="22"/>
       <c r="BI27" s="18"/>
       <c r="BJ27" s="4"/>
@@ -11406,64 +11538,74 @@
     </row>
     <row r="28" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="22"/>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="22"/>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="22"/>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="22"/>
-      <c r="BC28" s="25"/>
-      <c r="BD28" s="25"/>
-      <c r="BE28" s="25"/>
-      <c r="BF28" s="25"/>
-      <c r="BG28" s="25"/>
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB28" s="122"/>
+      <c r="AC28" s="122"/>
+      <c r="AD28" s="122"/>
+      <c r="AE28" s="122"/>
+      <c r="AF28" s="122"/>
+      <c r="AG28" s="122"/>
+      <c r="AH28" s="122"/>
+      <c r="AI28" s="122"/>
+      <c r="AJ28" s="122"/>
+      <c r="AK28" s="122"/>
+      <c r="AL28" s="122"/>
+      <c r="AM28" s="122"/>
+      <c r="AN28" s="122"/>
+      <c r="AO28" s="122"/>
+      <c r="AP28" s="122"/>
+      <c r="AQ28" s="122"/>
+      <c r="AR28" s="122"/>
+      <c r="AS28" s="122"/>
+      <c r="AT28" s="122"/>
+      <c r="AU28" s="122"/>
+      <c r="AV28" s="122"/>
+      <c r="AW28" s="122"/>
+      <c r="AX28" s="122"/>
+      <c r="AY28" s="122"/>
+      <c r="AZ28" s="122"/>
+      <c r="BA28" s="122"/>
+      <c r="BB28" s="122"/>
+      <c r="BC28" s="122"/>
+      <c r="BD28" s="122"/>
+      <c r="BE28" s="122"/>
+      <c r="BF28" s="122"/>
+      <c r="BG28" s="145"/>
       <c r="BH28" s="25"/>
       <c r="BI28" s="26"/>
       <c r="BJ28" s="27"/>
@@ -11667,67 +11809,74 @@
     </row>
     <row r="29" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="130"/>
-      <c r="R29" s="130"/>
-      <c r="S29" s="130"/>
-      <c r="T29" s="130"/>
-      <c r="U29" s="130"/>
-      <c r="V29" s="130"/>
-      <c r="W29" s="130"/>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="130"/>
-      <c r="Z29" s="130"/>
-      <c r="AA29" s="130"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="130"/>
-      <c r="AD29" s="130"/>
-      <c r="AE29" s="130"/>
-      <c r="AF29" s="130"/>
-      <c r="AG29" s="130"/>
-      <c r="AH29" s="130"/>
-      <c r="AI29" s="130"/>
-      <c r="AJ29" s="130"/>
-      <c r="AK29" s="130"/>
-      <c r="AL29" s="130"/>
-      <c r="AM29" s="130"/>
-      <c r="AN29" s="130"/>
-      <c r="AO29" s="130"/>
-      <c r="AP29" s="130"/>
-      <c r="AQ29" s="130"/>
-      <c r="AR29" s="130"/>
-      <c r="AS29" s="130"/>
-      <c r="AT29" s="130"/>
-      <c r="AU29" s="130"/>
-      <c r="AV29" s="130"/>
-      <c r="AW29" s="130"/>
-      <c r="AX29" s="130"/>
-      <c r="AY29" s="130"/>
-      <c r="AZ29" s="130"/>
-      <c r="BA29" s="130"/>
-      <c r="BB29" s="130"/>
-      <c r="BC29" s="130"/>
-      <c r="BD29" s="130"/>
-      <c r="BE29" s="130"/>
-      <c r="BF29" s="130"/>
-      <c r="BG29" s="130"/>
-      <c r="BH29" s="131"/>
+      <c r="B29" s="14">
+        <v>2</v>
+      </c>
+      <c r="C29" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="117"/>
+      <c r="R29" s="118"/>
+      <c r="S29" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB29" s="122"/>
+      <c r="AC29" s="122"/>
+      <c r="AD29" s="122"/>
+      <c r="AE29" s="122"/>
+      <c r="AF29" s="122"/>
+      <c r="AG29" s="122"/>
+      <c r="AH29" s="122"/>
+      <c r="AI29" s="122"/>
+      <c r="AJ29" s="122"/>
+      <c r="AK29" s="122"/>
+      <c r="AL29" s="122"/>
+      <c r="AM29" s="122"/>
+      <c r="AN29" s="122"/>
+      <c r="AO29" s="122"/>
+      <c r="AP29" s="122"/>
+      <c r="AQ29" s="122"/>
+      <c r="AR29" s="122"/>
+      <c r="AS29" s="122"/>
+      <c r="AT29" s="122"/>
+      <c r="AU29" s="122"/>
+      <c r="AV29" s="122"/>
+      <c r="AW29" s="122"/>
+      <c r="AX29" s="122"/>
+      <c r="AY29" s="122"/>
+      <c r="AZ29" s="122"/>
+      <c r="BA29" s="122"/>
+      <c r="BB29" s="122"/>
+      <c r="BC29" s="122"/>
+      <c r="BD29" s="122"/>
+      <c r="BE29" s="122"/>
+      <c r="BF29" s="122"/>
+      <c r="BG29" s="145"/>
       <c r="BI29" s="26"/>
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
@@ -11929,67 +12078,64 @@
     </row>
     <row r="30" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
-      <c r="B30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="30"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="30"/>
-      <c r="AL30" s="30"/>
-      <c r="AM30" s="30"/>
-      <c r="AN30" s="30"/>
-      <c r="AO30" s="30"/>
-      <c r="AP30" s="30"/>
-      <c r="AQ30" s="30"/>
-      <c r="AR30" s="30"/>
-      <c r="AS30" s="30"/>
-      <c r="AT30" s="29"/>
-      <c r="AU30" s="29"/>
-      <c r="AV30" s="29"/>
-      <c r="AW30" s="29"/>
-      <c r="AX30" s="29"/>
-      <c r="AY30" s="29"/>
-      <c r="AZ30" s="29"/>
-      <c r="BA30" s="29"/>
-      <c r="BB30" s="29"/>
-      <c r="BC30" s="29"/>
-      <c r="BD30" s="29"/>
-      <c r="BE30" s="29"/>
-      <c r="BF30" s="29"/>
-      <c r="BG30" s="29"/>
-      <c r="BH30" s="31"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="22"/>
+      <c r="AQ30" s="22"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="22"/>
+      <c r="AY30" s="22"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="25"/>
+      <c r="BD30" s="25"/>
+      <c r="BE30" s="25"/>
+      <c r="BF30" s="25"/>
+      <c r="BG30" s="25"/>
       <c r="BI30" s="32"/>
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
@@ -12191,65 +12337,67 @@
     </row>
     <row r="31" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34"/>
-      <c r="AN31" s="34"/>
-      <c r="AO31" s="34"/>
-      <c r="AP31" s="34"/>
-      <c r="AQ31" s="34"/>
-      <c r="AR31" s="34"/>
-      <c r="AS31" s="34"/>
-      <c r="AT31" s="7"/>
-      <c r="AU31" s="7"/>
-      <c r="AV31" s="7"/>
-      <c r="AW31" s="7"/>
-      <c r="AX31" s="7"/>
-      <c r="AY31" s="7"/>
-      <c r="AZ31" s="7"/>
-      <c r="BA31" s="7"/>
-      <c r="BB31" s="7"/>
-      <c r="BC31" s="7"/>
-      <c r="BD31" s="7"/>
-      <c r="BE31" s="7"/>
-      <c r="BF31" s="7"/>
-      <c r="BG31" s="7"/>
-      <c r="BH31" s="33"/>
+      <c r="B31" s="159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="160"/>
+      <c r="P31" s="160"/>
+      <c r="Q31" s="160"/>
+      <c r="R31" s="160"/>
+      <c r="S31" s="160"/>
+      <c r="T31" s="160"/>
+      <c r="U31" s="160"/>
+      <c r="V31" s="160"/>
+      <c r="W31" s="160"/>
+      <c r="X31" s="160"/>
+      <c r="Y31" s="160"/>
+      <c r="Z31" s="160"/>
+      <c r="AA31" s="160"/>
+      <c r="AB31" s="160"/>
+      <c r="AC31" s="160"/>
+      <c r="AD31" s="160"/>
+      <c r="AE31" s="160"/>
+      <c r="AF31" s="160"/>
+      <c r="AG31" s="160"/>
+      <c r="AH31" s="160"/>
+      <c r="AI31" s="160"/>
+      <c r="AJ31" s="160"/>
+      <c r="AK31" s="160"/>
+      <c r="AL31" s="160"/>
+      <c r="AM31" s="160"/>
+      <c r="AN31" s="160"/>
+      <c r="AO31" s="160"/>
+      <c r="AP31" s="160"/>
+      <c r="AQ31" s="160"/>
+      <c r="AR31" s="160"/>
+      <c r="AS31" s="160"/>
+      <c r="AT31" s="160"/>
+      <c r="AU31" s="160"/>
+      <c r="AV31" s="160"/>
+      <c r="AW31" s="160"/>
+      <c r="AX31" s="160"/>
+      <c r="AY31" s="160"/>
+      <c r="AZ31" s="160"/>
+      <c r="BA31" s="160"/>
+      <c r="BB31" s="160"/>
+      <c r="BC31" s="160"/>
+      <c r="BD31" s="160"/>
+      <c r="BE31" s="160"/>
+      <c r="BF31" s="160"/>
+      <c r="BG31" s="160"/>
+      <c r="BH31" s="161"/>
       <c r="BI31" s="32"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
@@ -12451,67 +12599,67 @@
     </row>
     <row r="32" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="34"/>
-      <c r="AM32" s="34"/>
-      <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="34"/>
-      <c r="AQ32" s="34"/>
-      <c r="AR32" s="34"/>
-      <c r="AS32" s="34"/>
-      <c r="AT32" s="7"/>
-      <c r="AU32" s="7"/>
-      <c r="AV32" s="7"/>
-      <c r="AW32" s="7"/>
-      <c r="AX32" s="7"/>
-      <c r="AY32" s="7"/>
-      <c r="AZ32" s="7"/>
-      <c r="BA32" s="7"/>
-      <c r="BB32" s="7"/>
-      <c r="BC32" s="7"/>
-      <c r="BD32" s="7"/>
-      <c r="BE32" s="7"/>
-      <c r="BF32" s="7"/>
-      <c r="BG32" s="7"/>
-      <c r="BH32" s="33"/>
+      <c r="B32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="30"/>
+      <c r="AL32" s="30"/>
+      <c r="AM32" s="30"/>
+      <c r="AN32" s="30"/>
+      <c r="AO32" s="30"/>
+      <c r="AP32" s="30"/>
+      <c r="AQ32" s="30"/>
+      <c r="AR32" s="30"/>
+      <c r="AS32" s="30"/>
+      <c r="AT32" s="29"/>
+      <c r="AU32" s="29"/>
+      <c r="AV32" s="29"/>
+      <c r="AW32" s="29"/>
+      <c r="AX32" s="29"/>
+      <c r="AY32" s="29"/>
+      <c r="AZ32" s="29"/>
+      <c r="BA32" s="29"/>
+      <c r="BB32" s="29"/>
+      <c r="BC32" s="29"/>
+      <c r="BD32" s="29"/>
+      <c r="BE32" s="29"/>
+      <c r="BF32" s="29"/>
+      <c r="BG32" s="29"/>
+      <c r="BH32" s="31"/>
       <c r="BI32" s="32"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
@@ -12711,23 +12859,19 @@
       <c r="IW32" s="1"/>
       <c r="IX32" s="1"/>
     </row>
-    <row r="33" spans="1:258" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="81"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -12975,22 +13119,23 @@
       <c r="IW33" s="1"/>
       <c r="IX33" s="1"/>
     </row>
-    <row r="34" spans="1:258" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="73"/>
-      <c r="C34" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
+    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="67"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -13236,64 +13381,68 @@
       <c r="IW34" s="1"/>
       <c r="IX34" s="1"/>
     </row>
-    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="73"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
+    <row r="35" spans="1:258" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="67"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="8"/>
-      <c r="AP35" s="8"/>
-      <c r="AQ35" s="8"/>
-      <c r="AR35" s="8"/>
-      <c r="AS35" s="22"/>
-      <c r="AT35" s="6"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="34"/>
+      <c r="AI35" s="34"/>
+      <c r="AJ35" s="34"/>
+      <c r="AK35" s="34"/>
+      <c r="AL35" s="34"/>
+      <c r="AM35" s="34"/>
+      <c r="AN35" s="34"/>
+      <c r="AO35" s="34"/>
+      <c r="AP35" s="34"/>
+      <c r="AQ35" s="34"/>
+      <c r="AR35" s="34"/>
+      <c r="AS35" s="34"/>
+      <c r="AT35" s="7"/>
       <c r="AU35" s="7"/>
       <c r="AV35" s="7"/>
       <c r="AW35" s="7"/>
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="AZ35" s="7"/>
-      <c r="BA35" s="39"/>
-      <c r="BB35" s="39"/>
-      <c r="BC35" s="39"/>
+      <c r="BA35" s="7"/>
+      <c r="BB35" s="7"/>
+      <c r="BC35" s="7"/>
+      <c r="BD35" s="7"/>
+      <c r="BE35" s="7"/>
       <c r="BF35" s="7"/>
       <c r="BG35" s="7"/>
       <c r="BH35" s="33"/>
@@ -13496,62 +13645,65 @@
       <c r="IW35" s="1"/>
       <c r="IX35" s="1"/>
     </row>
-    <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
+    <row r="36" spans="1:258" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="68"/>
+      <c r="C36" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="80"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="8"/>
-      <c r="AN36" s="8"/>
-      <c r="AO36" s="8"/>
-      <c r="AP36" s="8"/>
-      <c r="AQ36" s="8"/>
-      <c r="AR36" s="8"/>
-      <c r="AS36" s="22"/>
-      <c r="AT36" s="6"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="34"/>
+      <c r="AE36" s="34"/>
+      <c r="AF36" s="34"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="34"/>
+      <c r="AI36" s="34"/>
+      <c r="AJ36" s="34"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="34"/>
+      <c r="AM36" s="34"/>
+      <c r="AN36" s="34"/>
+      <c r="AO36" s="34"/>
+      <c r="AP36" s="34"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="34"/>
+      <c r="AS36" s="34"/>
+      <c r="AT36" s="7"/>
       <c r="AU36" s="7"/>
       <c r="AV36" s="7"/>
       <c r="AW36" s="7"/>
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="AZ36" s="7"/>
-      <c r="BA36" s="39"/>
-      <c r="BB36" s="39"/>
-      <c r="BC36" s="39"/>
+      <c r="BA36" s="7"/>
+      <c r="BB36" s="7"/>
+      <c r="BC36" s="7"/>
+      <c r="BD36" s="7"/>
+      <c r="BE36" s="7"/>
       <c r="BF36" s="7"/>
       <c r="BG36" s="7"/>
       <c r="BH36" s="33"/>
@@ -13755,23 +13907,23 @@
       <c r="IX36" s="1"/>
     </row>
     <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="85"/>
+      <c r="O37" s="7"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
@@ -13812,8 +13964,6 @@
       <c r="BA37" s="39"/>
       <c r="BB37" s="39"/>
       <c r="BC37" s="39"/>
-      <c r="BD37" s="64"/>
-      <c r="BE37" s="64"/>
       <c r="BF37" s="7"/>
       <c r="BG37" s="7"/>
       <c r="BH37" s="33"/>
@@ -14017,38 +14167,38 @@
       <c r="IX37" s="1"/>
     </row>
     <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="73"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="34"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
@@ -14072,8 +14222,6 @@
       <c r="BA38" s="39"/>
       <c r="BB38" s="39"/>
       <c r="BC38" s="39"/>
-      <c r="BD38" s="64"/>
-      <c r="BE38" s="64"/>
       <c r="BF38" s="7"/>
       <c r="BG38" s="7"/>
       <c r="BH38" s="33"/>
@@ -14277,9 +14425,9 @@
       <c r="IX38" s="1"/>
     </row>
     <row r="39" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="73"/>
-      <c r="B39" s="2" t="s">
-        <v>71</v>
+      <c r="A39" s="67"/>
+      <c r="B39" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C39" s="34"/>
       <c r="D39" s="35"/>
@@ -14289,28 +14437,28 @@
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
       <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
       <c r="AG39" s="8"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="8"/>
@@ -14334,8 +14482,8 @@
       <c r="BA39" s="39"/>
       <c r="BB39" s="39"/>
       <c r="BC39" s="39"/>
-      <c r="BD39" s="64"/>
-      <c r="BE39" s="64"/>
+      <c r="BD39" s="58"/>
+      <c r="BE39" s="58"/>
       <c r="BF39" s="7"/>
       <c r="BG39" s="7"/>
       <c r="BH39" s="33"/>
@@ -14539,25 +14687,25 @@
       <c r="IX39" s="1"/>
     </row>
     <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="73"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
       <c r="P40" s="34"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="36"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
       <c r="T40" s="36"/>
       <c r="U40" s="34"/>
       <c r="V40" s="34"/>
@@ -14594,6 +14742,8 @@
       <c r="BA40" s="39"/>
       <c r="BB40" s="39"/>
       <c r="BC40" s="39"/>
+      <c r="BD40" s="58"/>
+      <c r="BE40" s="58"/>
       <c r="BF40" s="7"/>
       <c r="BG40" s="7"/>
       <c r="BH40" s="33"/>
@@ -14797,28 +14947,28 @@
       <c r="IX40" s="1"/>
     </row>
     <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
       <c r="P41" s="34"/>
-      <c r="Q41" s="7"/>
+      <c r="Q41" s="34"/>
       <c r="R41" s="34"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="36"/>
       <c r="U41" s="34"/>
       <c r="V41" s="34"/>
       <c r="W41" s="34"/>
@@ -14831,31 +14981,31 @@
       <c r="AD41" s="34"/>
       <c r="AE41" s="34"/>
       <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="34"/>
-      <c r="AM41" s="34"/>
-      <c r="AN41" s="34"/>
-      <c r="AO41" s="34"/>
-      <c r="AP41" s="34"/>
-      <c r="AQ41" s="34"/>
-      <c r="AR41" s="34"/>
-      <c r="AS41" s="34"/>
-      <c r="AT41" s="7"/>
-      <c r="AU41" s="6"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="22"/>
+      <c r="AT41" s="6"/>
+      <c r="AU41" s="7"/>
       <c r="AV41" s="7"/>
       <c r="AW41" s="7"/>
       <c r="AX41" s="7"/>
       <c r="AY41" s="7"/>
       <c r="AZ41" s="7"/>
-      <c r="BA41" s="7"/>
-      <c r="BB41" s="7"/>
-      <c r="BC41" s="7"/>
-      <c r="BD41" s="7"/>
-      <c r="BE41" s="7"/>
+      <c r="BA41" s="39"/>
+      <c r="BB41" s="39"/>
+      <c r="BC41" s="39"/>
+      <c r="BD41" s="58"/>
+      <c r="BE41" s="58"/>
       <c r="BF41" s="7"/>
       <c r="BG41" s="7"/>
       <c r="BH41" s="33"/>
@@ -15059,11 +15209,9 @@
       <c r="IX41" s="1"/>
     </row>
     <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="22" t="s">
-        <v>79</v>
-      </c>
+      <c r="A42" s="67"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -15076,24 +15224,24 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
+      <c r="P42" s="34"/>
       <c r="Q42" s="35"/>
-      <c r="R42" s="11"/>
+      <c r="R42" s="9"/>
       <c r="S42" s="36"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="11"/>
-      <c r="AD42" s="11"/>
-      <c r="AE42" s="38"/>
-      <c r="AF42" s="38"/>
-      <c r="AG42" s="38"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+      <c r="AD42" s="34"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="34"/>
+      <c r="AG42" s="8"/>
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
@@ -15105,22 +15253,20 @@
       <c r="AP42" s="8"/>
       <c r="AQ42" s="8"/>
       <c r="AR42" s="8"/>
-      <c r="AS42" s="8"/>
-      <c r="AT42" s="22"/>
-      <c r="AU42" s="3"/>
-      <c r="AV42" s="22"/>
+      <c r="AS42" s="22"/>
+      <c r="AT42" s="6"/>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="7"/>
       <c r="AW42" s="7"/>
       <c r="AX42" s="7"/>
       <c r="AY42" s="7"/>
       <c r="AZ42" s="7"/>
-      <c r="BA42" s="7"/>
+      <c r="BA42" s="39"/>
       <c r="BB42" s="39"/>
       <c r="BC42" s="39"/>
-      <c r="BD42" s="39"/>
-      <c r="BE42" s="39"/>
-      <c r="BF42" s="39"/>
-      <c r="BG42" s="39"/>
-      <c r="BH42" s="32"/>
+      <c r="BF42" s="7"/>
+      <c r="BG42" s="7"/>
+      <c r="BH42" s="33"/>
       <c r="BI42" s="32"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
@@ -15321,9 +15467,11 @@
       <c r="IX42" s="1"/>
     </row>
     <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="11"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -15332,41 +15480,41 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="11"/>
-      <c r="AD43" s="11"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="8"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="8"/>
-      <c r="AM43" s="8"/>
-      <c r="AN43" s="8"/>
-      <c r="AO43" s="8"/>
-      <c r="AP43" s="8"/>
-      <c r="AQ43" s="8"/>
-      <c r="AR43" s="8"/>
-      <c r="AS43" s="8"/>
-      <c r="AT43" s="22"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="34"/>
+      <c r="AH43" s="34"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="34"/>
+      <c r="AL43" s="34"/>
+      <c r="AM43" s="34"/>
+      <c r="AN43" s="34"/>
+      <c r="AO43" s="34"/>
+      <c r="AP43" s="34"/>
+      <c r="AQ43" s="34"/>
+      <c r="AR43" s="34"/>
+      <c r="AS43" s="34"/>
+      <c r="AT43" s="7"/>
       <c r="AU43" s="6"/>
       <c r="AV43" s="7"/>
       <c r="AW43" s="7"/>
@@ -15374,13 +15522,13 @@
       <c r="AY43" s="7"/>
       <c r="AZ43" s="7"/>
       <c r="BA43" s="7"/>
-      <c r="BB43" s="39"/>
-      <c r="BC43" s="39"/>
-      <c r="BD43" s="39"/>
-      <c r="BE43" s="39"/>
-      <c r="BF43" s="39"/>
-      <c r="BG43" s="39"/>
-      <c r="BH43" s="32"/>
+      <c r="BB43" s="7"/>
+      <c r="BC43" s="7"/>
+      <c r="BD43" s="7"/>
+      <c r="BE43" s="7"/>
+      <c r="BF43" s="7"/>
+      <c r="BG43" s="7"/>
+      <c r="BH43" s="33"/>
       <c r="BI43" s="32"/>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
@@ -15582,10 +15730,10 @@
     </row>
     <row r="44" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
-      <c r="B44" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="7"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -15594,28 +15742,28 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="35"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="34"/>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
+      <c r="Y44" s="37"/>
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
@@ -15629,8 +15777,8 @@
       <c r="AR44" s="8"/>
       <c r="AS44" s="8"/>
       <c r="AT44" s="22"/>
-      <c r="AU44" s="6"/>
-      <c r="AV44" s="7"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="22"/>
       <c r="AW44" s="7"/>
       <c r="AX44" s="7"/>
       <c r="AY44" s="7"/>
@@ -15845,9 +15993,7 @@
     <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="10"/>
-      <c r="C45" s="22" t="s">
-        <v>87</v>
-      </c>
+      <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -15872,9 +16018,9 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
       <c r="AE45" s="8"/>
       <c r="AF45" s="8"/>
       <c r="AG45" s="8"/>
@@ -16106,7 +16252,9 @@
     </row>
     <row r="46" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
-      <c r="B46" s="10"/>
+      <c r="B46" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -16366,10 +16514,10 @@
     </row>
     <row r="47" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
-      <c r="B47" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="7"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -16629,7 +16777,7 @@
     <row r="48" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -16888,30 +17036,30 @@
     </row>
     <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
-      <c r="B49" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
+      <c r="B49" s="163" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="164"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="165"/>
+      <c r="I49" s="165"/>
+      <c r="J49" s="165"/>
+      <c r="K49" s="165"/>
+      <c r="L49" s="166"/>
+      <c r="M49" s="166"/>
+      <c r="N49" s="166"/>
+      <c r="O49" s="166"/>
+      <c r="P49" s="166"/>
+      <c r="Q49" s="166"/>
+      <c r="R49" s="166"/>
+      <c r="S49" s="166"/>
+      <c r="T49" s="166"/>
+      <c r="U49" s="166"/>
+      <c r="V49" s="162"/>
+      <c r="W49" s="162"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
@@ -17150,65 +17298,67 @@
     </row>
     <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="43"/>
-      <c r="Z50" s="43"/>
-      <c r="AA50" s="43"/>
-      <c r="AB50" s="52"/>
-      <c r="AC50" s="52"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52"/>
-      <c r="AH50" s="52"/>
-      <c r="AI50" s="52"/>
-      <c r="AJ50" s="52"/>
-      <c r="AK50" s="52"/>
-      <c r="AL50" s="52"/>
-      <c r="AM50" s="52"/>
-      <c r="AN50" s="52"/>
-      <c r="AO50" s="52"/>
-      <c r="AP50" s="52"/>
-      <c r="AQ50" s="52"/>
-      <c r="AR50" s="52"/>
-      <c r="AS50" s="52"/>
-      <c r="AT50" s="40"/>
-      <c r="AU50" s="48"/>
-      <c r="AV50" s="41"/>
-      <c r="AW50" s="41"/>
-      <c r="AX50" s="41"/>
-      <c r="AY50" s="41"/>
-      <c r="AZ50" s="41"/>
-      <c r="BA50" s="41"/>
-      <c r="BB50" s="49"/>
-      <c r="BC50" s="49"/>
-      <c r="BD50" s="49"/>
-      <c r="BE50" s="49"/>
-      <c r="BF50" s="49"/>
-      <c r="BG50" s="49"/>
-      <c r="BH50" s="50"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="164" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="165"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="165"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="165"/>
+      <c r="K50" s="165"/>
+      <c r="L50" s="166"/>
+      <c r="M50" s="166"/>
+      <c r="N50" s="166"/>
+      <c r="O50" s="166"/>
+      <c r="P50" s="166"/>
+      <c r="Q50" s="166"/>
+      <c r="R50" s="166"/>
+      <c r="S50" s="166"/>
+      <c r="T50" s="166"/>
+      <c r="U50" s="166"/>
+      <c r="V50" s="162"/>
+      <c r="W50" s="162"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="8"/>
+      <c r="AO50" s="8"/>
+      <c r="AP50" s="8"/>
+      <c r="AQ50" s="8"/>
+      <c r="AR50" s="8"/>
+      <c r="AS50" s="8"/>
+      <c r="AT50" s="22"/>
+      <c r="AU50" s="6"/>
+      <c r="AV50" s="7"/>
+      <c r="AW50" s="7"/>
+      <c r="AX50" s="7"/>
+      <c r="AY50" s="7"/>
+      <c r="AZ50" s="7"/>
+      <c r="BA50" s="7"/>
+      <c r="BB50" s="39"/>
+      <c r="BC50" s="39"/>
+      <c r="BD50" s="39"/>
+      <c r="BE50" s="39"/>
+      <c r="BF50" s="39"/>
+      <c r="BG50" s="39"/>
+      <c r="BH50" s="32"/>
       <c r="BI50" s="32"/>
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
@@ -17410,7 +17560,7 @@
     </row>
     <row r="51" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
-      <c r="B51" s="7"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -17468,7 +17618,7 @@
       <c r="BE51" s="39"/>
       <c r="BF51" s="39"/>
       <c r="BG51" s="39"/>
-      <c r="BH51" s="39"/>
+      <c r="BH51" s="32"/>
       <c r="BI51" s="32"/>
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
@@ -17670,67 +17820,67 @@
     </row>
     <row r="52" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
-      <c r="B52" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="130"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="130"/>
-      <c r="N52" s="130"/>
-      <c r="O52" s="130"/>
-      <c r="P52" s="130"/>
-      <c r="Q52" s="130"/>
-      <c r="R52" s="130"/>
-      <c r="S52" s="130"/>
-      <c r="T52" s="130"/>
-      <c r="U52" s="130"/>
-      <c r="V52" s="130"/>
-      <c r="W52" s="130"/>
-      <c r="X52" s="130"/>
-      <c r="Y52" s="130"/>
-      <c r="Z52" s="130"/>
-      <c r="AA52" s="130"/>
-      <c r="AB52" s="130"/>
-      <c r="AC52" s="130"/>
-      <c r="AD52" s="130"/>
-      <c r="AE52" s="130"/>
-      <c r="AF52" s="130"/>
-      <c r="AG52" s="130"/>
-      <c r="AH52" s="130"/>
-      <c r="AI52" s="130"/>
-      <c r="AJ52" s="130"/>
-      <c r="AK52" s="130"/>
-      <c r="AL52" s="130"/>
-      <c r="AM52" s="130"/>
-      <c r="AN52" s="130"/>
-      <c r="AO52" s="130"/>
-      <c r="AP52" s="130"/>
-      <c r="AQ52" s="130"/>
-      <c r="AR52" s="130"/>
-      <c r="AS52" s="130"/>
-      <c r="AT52" s="130"/>
-      <c r="AU52" s="130"/>
-      <c r="AV52" s="130"/>
-      <c r="AW52" s="130"/>
-      <c r="AX52" s="130"/>
-      <c r="AY52" s="130"/>
-      <c r="AZ52" s="130"/>
-      <c r="BA52" s="130"/>
-      <c r="BB52" s="130"/>
-      <c r="BC52" s="130"/>
-      <c r="BD52" s="130"/>
-      <c r="BE52" s="130"/>
-      <c r="BF52" s="130"/>
-      <c r="BG52" s="130"/>
-      <c r="BH52" s="131"/>
+      <c r="B52" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="8"/>
+      <c r="AN52" s="8"/>
+      <c r="AO52" s="8"/>
+      <c r="AP52" s="8"/>
+      <c r="AQ52" s="8"/>
+      <c r="AR52" s="8"/>
+      <c r="AS52" s="8"/>
+      <c r="AT52" s="22"/>
+      <c r="AU52" s="6"/>
+      <c r="AV52" s="7"/>
+      <c r="AW52" s="7"/>
+      <c r="AX52" s="7"/>
+      <c r="AY52" s="7"/>
+      <c r="AZ52" s="7"/>
+      <c r="BA52" s="7"/>
+      <c r="BB52" s="39"/>
+      <c r="BC52" s="39"/>
+      <c r="BD52" s="39"/>
+      <c r="BE52" s="39"/>
+      <c r="BF52" s="39"/>
+      <c r="BG52" s="39"/>
+      <c r="BH52" s="32"/>
       <c r="BI52" s="32"/>
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
@@ -17932,67 +18082,65 @@
     </row>
     <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="28"/>
-      <c r="B53" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="30"/>
-      <c r="Y53" s="30"/>
-      <c r="Z53" s="30"/>
-      <c r="AA53" s="30"/>
-      <c r="AB53" s="30"/>
-      <c r="AC53" s="30"/>
-      <c r="AD53" s="30"/>
-      <c r="AE53" s="30"/>
-      <c r="AF53" s="30"/>
-      <c r="AG53" s="30"/>
-      <c r="AH53" s="30"/>
-      <c r="AI53" s="30"/>
-      <c r="AJ53" s="30"/>
-      <c r="AK53" s="30"/>
-      <c r="AL53" s="30"/>
-      <c r="AM53" s="30"/>
-      <c r="AN53" s="30"/>
-      <c r="AO53" s="30"/>
-      <c r="AP53" s="30"/>
-      <c r="AQ53" s="30"/>
-      <c r="AR53" s="30"/>
-      <c r="AS53" s="30"/>
-      <c r="AT53" s="61"/>
-      <c r="AU53" s="61"/>
-      <c r="AV53" s="61"/>
-      <c r="AW53" s="61"/>
-      <c r="AX53" s="61"/>
-      <c r="AY53" s="61"/>
-      <c r="AZ53" s="61"/>
-      <c r="BA53" s="61"/>
-      <c r="BB53" s="61"/>
-      <c r="BC53" s="61"/>
-      <c r="BD53" s="61"/>
-      <c r="BE53" s="61"/>
-      <c r="BF53" s="61"/>
-      <c r="BG53" s="61"/>
-      <c r="BH53" s="62"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="8"/>
+      <c r="AN53" s="8"/>
+      <c r="AO53" s="8"/>
+      <c r="AP53" s="8"/>
+      <c r="AQ53" s="8"/>
+      <c r="AR53" s="8"/>
+      <c r="AS53" s="8"/>
+      <c r="AT53" s="22"/>
+      <c r="AU53" s="6"/>
+      <c r="AV53" s="7"/>
+      <c r="AW53" s="7"/>
+      <c r="AX53" s="7"/>
+      <c r="AY53" s="7"/>
+      <c r="AZ53" s="7"/>
+      <c r="BA53" s="7"/>
+      <c r="BB53" s="39"/>
+      <c r="BC53" s="39"/>
+      <c r="BD53" s="39"/>
+      <c r="BE53" s="39"/>
+      <c r="BF53" s="39"/>
+      <c r="BG53" s="39"/>
+      <c r="BH53" s="32"/>
       <c r="BI53" s="32"/>
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
@@ -18194,65 +18342,67 @@
     </row>
     <row r="54" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="28"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75"/>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="34"/>
-      <c r="AD54" s="34"/>
-      <c r="AE54" s="34"/>
-      <c r="AF54" s="34"/>
-      <c r="AG54" s="34"/>
-      <c r="AH54" s="34"/>
-      <c r="AI54" s="34"/>
-      <c r="AJ54" s="34"/>
-      <c r="AK54" s="34"/>
-      <c r="AL54" s="34"/>
-      <c r="AM54" s="34"/>
-      <c r="AN54" s="34"/>
-      <c r="AO54" s="34"/>
-      <c r="AP54" s="34"/>
-      <c r="AQ54" s="34"/>
-      <c r="AR54" s="34"/>
-      <c r="AS54" s="34"/>
-      <c r="AT54" s="75"/>
-      <c r="AU54" s="75"/>
-      <c r="AV54" s="75"/>
-      <c r="AW54" s="75"/>
-      <c r="AX54" s="75"/>
-      <c r="AY54" s="75"/>
-      <c r="AZ54" s="75"/>
-      <c r="BA54" s="75"/>
-      <c r="BB54" s="75"/>
-      <c r="BC54" s="75"/>
-      <c r="BD54" s="75"/>
-      <c r="BE54" s="75"/>
-      <c r="BF54" s="75"/>
-      <c r="BG54" s="75"/>
-      <c r="BH54" s="72"/>
+      <c r="B54" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="8"/>
+      <c r="AN54" s="8"/>
+      <c r="AO54" s="8"/>
+      <c r="AP54" s="8"/>
+      <c r="AQ54" s="8"/>
+      <c r="AR54" s="8"/>
+      <c r="AS54" s="8"/>
+      <c r="AT54" s="22"/>
+      <c r="AU54" s="6"/>
+      <c r="AV54" s="7"/>
+      <c r="AW54" s="7"/>
+      <c r="AX54" s="7"/>
+      <c r="AY54" s="7"/>
+      <c r="AZ54" s="7"/>
+      <c r="BA54" s="7"/>
+      <c r="BB54" s="39"/>
+      <c r="BC54" s="39"/>
+      <c r="BD54" s="39"/>
+      <c r="BE54" s="39"/>
+      <c r="BF54" s="39"/>
+      <c r="BG54" s="39"/>
+      <c r="BH54" s="32"/>
       <c r="BI54" s="32"/>
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
@@ -18454,65 +18604,65 @@
     </row>
     <row r="55" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
-      <c r="B55" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="66"/>
-      <c r="S55" s="66"/>
-      <c r="V55" s="66"/>
-      <c r="W55" s="66"/>
-      <c r="X55" s="66"/>
-      <c r="Y55" s="64"/>
-      <c r="Z55" s="66"/>
-      <c r="AA55" s="66"/>
-      <c r="AB55" s="66"/>
-      <c r="AC55" s="66"/>
-      <c r="AD55" s="66"/>
-      <c r="AE55" s="66"/>
-      <c r="AF55" s="66"/>
-      <c r="AG55" s="66"/>
-      <c r="AH55" s="66"/>
-      <c r="AI55" s="66"/>
-      <c r="AJ55" s="66"/>
-      <c r="AK55" s="66"/>
-      <c r="AL55" s="66"/>
-      <c r="AM55" s="66"/>
-      <c r="AN55" s="66"/>
-      <c r="AO55" s="66"/>
-      <c r="AP55" s="66"/>
-      <c r="AQ55" s="66"/>
-      <c r="AR55" s="66"/>
-      <c r="AS55" s="66"/>
-      <c r="AU55" s="65"/>
-      <c r="AV55" s="64"/>
-      <c r="AW55" s="64"/>
-      <c r="AX55" s="64"/>
-      <c r="AY55" s="64"/>
-      <c r="AZ55" s="64"/>
-      <c r="BA55" s="64"/>
-      <c r="BB55" s="67"/>
-      <c r="BC55" s="67"/>
-      <c r="BD55" s="67"/>
-      <c r="BE55" s="67"/>
-      <c r="BF55" s="67"/>
-      <c r="BG55" s="67"/>
-      <c r="BH55" s="63"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="43"/>
+      <c r="AA55" s="43"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52"/>
+      <c r="AD55" s="52"/>
+      <c r="AE55" s="52"/>
+      <c r="AF55" s="52"/>
+      <c r="AG55" s="52"/>
+      <c r="AH55" s="52"/>
+      <c r="AI55" s="52"/>
+      <c r="AJ55" s="52"/>
+      <c r="AK55" s="52"/>
+      <c r="AL55" s="52"/>
+      <c r="AM55" s="52"/>
+      <c r="AN55" s="52"/>
+      <c r="AO55" s="52"/>
+      <c r="AP55" s="52"/>
+      <c r="AQ55" s="52"/>
+      <c r="AR55" s="52"/>
+      <c r="AS55" s="52"/>
+      <c r="AT55" s="40"/>
+      <c r="AU55" s="48"/>
+      <c r="AV55" s="41"/>
+      <c r="AW55" s="41"/>
+      <c r="AX55" s="41"/>
+      <c r="AY55" s="41"/>
+      <c r="AZ55" s="41"/>
+      <c r="BA55" s="41"/>
+      <c r="BB55" s="49"/>
+      <c r="BC55" s="49"/>
+      <c r="BD55" s="49"/>
+      <c r="BE55" s="49"/>
+      <c r="BF55" s="49"/>
+      <c r="BG55" s="49"/>
+      <c r="BH55" s="50"/>
       <c r="BI55" s="32"/>
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1"/>
@@ -18714,65 +18864,64 @@
     </row>
     <row r="56" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="69"/>
-      <c r="P56" s="69"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="47"/>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="47"/>
-      <c r="AB56" s="47"/>
-      <c r="AC56" s="47"/>
-      <c r="AD56" s="47"/>
-      <c r="AE56" s="46"/>
-      <c r="AF56" s="46"/>
-      <c r="AG56" s="46"/>
-      <c r="AH56" s="46"/>
-      <c r="AI56" s="46"/>
-      <c r="AJ56" s="46"/>
-      <c r="AK56" s="46"/>
-      <c r="AL56" s="47"/>
-      <c r="AM56" s="43"/>
-      <c r="AN56" s="43"/>
-      <c r="AO56" s="43"/>
-      <c r="AP56" s="43"/>
-      <c r="AQ56" s="43"/>
-      <c r="AR56" s="43"/>
-      <c r="AS56" s="43"/>
-      <c r="AT56" s="69"/>
-      <c r="AU56" s="48"/>
-      <c r="AV56" s="69"/>
-      <c r="AW56" s="69"/>
-      <c r="AX56" s="69"/>
-      <c r="AY56" s="69"/>
-      <c r="AZ56" s="69"/>
-      <c r="BA56" s="69"/>
-      <c r="BB56" s="70"/>
-      <c r="BC56" s="70"/>
-      <c r="BD56" s="70"/>
-      <c r="BE56" s="70"/>
-      <c r="BF56" s="70"/>
-      <c r="BG56" s="70"/>
-      <c r="BH56" s="71"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="8"/>
+      <c r="AN56" s="8"/>
+      <c r="AO56" s="8"/>
+      <c r="AP56" s="8"/>
+      <c r="AQ56" s="8"/>
+      <c r="AR56" s="8"/>
+      <c r="AS56" s="8"/>
+      <c r="AT56" s="22"/>
+      <c r="AU56" s="6"/>
+      <c r="AV56" s="7"/>
+      <c r="AW56" s="7"/>
+      <c r="AX56" s="7"/>
+      <c r="AY56" s="7"/>
+      <c r="AZ56" s="7"/>
+      <c r="BA56" s="7"/>
+      <c r="BB56" s="39"/>
+      <c r="BC56" s="39"/>
+      <c r="BD56" s="39"/>
+      <c r="BE56" s="39"/>
+      <c r="BF56" s="39"/>
+      <c r="BG56" s="39"/>
       <c r="BI56" s="32"/>
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
@@ -18974,65 +19123,67 @@
     </row>
     <row r="57" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="28"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="11"/>
-      <c r="AE57" s="38"/>
-      <c r="AF57" s="38"/>
-      <c r="AG57" s="38"/>
-      <c r="AH57" s="8"/>
-      <c r="AI57" s="8"/>
-      <c r="AJ57" s="8"/>
-      <c r="AK57" s="8"/>
-      <c r="AL57" s="8"/>
-      <c r="AM57" s="8"/>
-      <c r="AN57" s="8"/>
-      <c r="AO57" s="8"/>
-      <c r="AP57" s="8"/>
-      <c r="AQ57" s="8"/>
-      <c r="AR57" s="8"/>
-      <c r="AS57" s="8"/>
-      <c r="AT57" s="22"/>
-      <c r="AU57" s="3"/>
-      <c r="AV57" s="22"/>
-      <c r="AW57" s="7"/>
-      <c r="AX57" s="7"/>
-      <c r="AY57" s="7"/>
-      <c r="AZ57" s="7"/>
-      <c r="BA57" s="7"/>
-      <c r="BB57" s="39"/>
-      <c r="BC57" s="39"/>
-      <c r="BD57" s="39"/>
-      <c r="BE57" s="39"/>
-      <c r="BF57" s="39"/>
-      <c r="BG57" s="39"/>
-      <c r="BH57" s="39"/>
+      <c r="B57" s="127" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="128"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="128"/>
+      <c r="M57" s="128"/>
+      <c r="N57" s="128"/>
+      <c r="O57" s="128"/>
+      <c r="P57" s="128"/>
+      <c r="Q57" s="128"/>
+      <c r="R57" s="128"/>
+      <c r="S57" s="128"/>
+      <c r="T57" s="128"/>
+      <c r="U57" s="128"/>
+      <c r="V57" s="128"/>
+      <c r="W57" s="128"/>
+      <c r="X57" s="128"/>
+      <c r="Y57" s="128"/>
+      <c r="Z57" s="128"/>
+      <c r="AA57" s="128"/>
+      <c r="AB57" s="128"/>
+      <c r="AC57" s="128"/>
+      <c r="AD57" s="128"/>
+      <c r="AE57" s="128"/>
+      <c r="AF57" s="128"/>
+      <c r="AG57" s="128"/>
+      <c r="AH57" s="128"/>
+      <c r="AI57" s="128"/>
+      <c r="AJ57" s="128"/>
+      <c r="AK57" s="128"/>
+      <c r="AL57" s="128"/>
+      <c r="AM57" s="128"/>
+      <c r="AN57" s="128"/>
+      <c r="AO57" s="128"/>
+      <c r="AP57" s="128"/>
+      <c r="AQ57" s="128"/>
+      <c r="AR57" s="128"/>
+      <c r="AS57" s="128"/>
+      <c r="AT57" s="128"/>
+      <c r="AU57" s="128"/>
+      <c r="AV57" s="128"/>
+      <c r="AW57" s="128"/>
+      <c r="AX57" s="128"/>
+      <c r="AY57" s="128"/>
+      <c r="AZ57" s="128"/>
+      <c r="BA57" s="128"/>
+      <c r="BB57" s="128"/>
+      <c r="BC57" s="128"/>
+      <c r="BD57" s="128"/>
+      <c r="BE57" s="128"/>
+      <c r="BF57" s="128"/>
+      <c r="BG57" s="128"/>
+      <c r="BH57" s="129"/>
       <c r="BI57" s="32"/>
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
@@ -19233,67 +19384,69 @@
       <c r="IX57" s="1"/>
     </row>
     <row r="58" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-      <c r="AH58" s="3"/>
-      <c r="AI58" s="3"/>
-      <c r="AJ58" s="3"/>
-      <c r="AK58" s="3"/>
-      <c r="AL58" s="3"/>
-      <c r="AM58" s="3"/>
-      <c r="AN58" s="3"/>
-      <c r="AO58" s="3"/>
-      <c r="AP58" s="3"/>
-      <c r="AQ58" s="3"/>
-      <c r="AR58" s="3"/>
-      <c r="AS58" s="3"/>
-      <c r="AT58" s="3"/>
-      <c r="AU58" s="3"/>
-      <c r="AV58" s="3"/>
-      <c r="AW58" s="3"/>
-      <c r="AX58" s="3"/>
-      <c r="AY58" s="3"/>
-      <c r="AZ58" s="3"/>
-      <c r="BA58" s="3"/>
-      <c r="BB58" s="3"/>
-      <c r="BC58" s="3"/>
-      <c r="BD58" s="3"/>
-      <c r="BE58" s="3"/>
-      <c r="BF58" s="3"/>
-      <c r="BG58" s="3"/>
-      <c r="BH58" s="3"/>
-      <c r="BI58" s="3"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="30"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="30"/>
+      <c r="AE58" s="30"/>
+      <c r="AF58" s="30"/>
+      <c r="AG58" s="30"/>
+      <c r="AH58" s="30"/>
+      <c r="AI58" s="30"/>
+      <c r="AJ58" s="30"/>
+      <c r="AK58" s="30"/>
+      <c r="AL58" s="30"/>
+      <c r="AM58" s="30"/>
+      <c r="AN58" s="30"/>
+      <c r="AO58" s="30"/>
+      <c r="AP58" s="30"/>
+      <c r="AQ58" s="30"/>
+      <c r="AR58" s="30"/>
+      <c r="AS58" s="30"/>
+      <c r="AT58" s="55"/>
+      <c r="AU58" s="55"/>
+      <c r="AV58" s="55"/>
+      <c r="AW58" s="55"/>
+      <c r="AX58" s="55"/>
+      <c r="AY58" s="55"/>
+      <c r="AZ58" s="55"/>
+      <c r="BA58" s="55"/>
+      <c r="BB58" s="55"/>
+      <c r="BC58" s="55"/>
+      <c r="BD58" s="55"/>
+      <c r="BE58" s="55"/>
+      <c r="BF58" s="55"/>
+      <c r="BG58" s="55"/>
+      <c r="BH58" s="56"/>
+      <c r="BI58" s="32"/>
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
@@ -19493,67 +19646,67 @@
       <c r="IX58" s="1"/>
     </row>
     <row r="59" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="53"/>
-      <c r="U59" s="53"/>
-      <c r="V59" s="53"/>
-      <c r="W59" s="53"/>
-      <c r="X59" s="53"/>
-      <c r="Y59" s="53"/>
-      <c r="Z59" s="53"/>
-      <c r="AA59" s="53"/>
-      <c r="AB59" s="53"/>
-      <c r="AC59" s="53"/>
-      <c r="AD59" s="53"/>
-      <c r="AE59" s="53"/>
-      <c r="AF59" s="53"/>
-      <c r="AG59" s="53"/>
-      <c r="AH59" s="53"/>
-      <c r="AI59" s="53"/>
-      <c r="AJ59" s="53"/>
-      <c r="AK59" s="53"/>
-      <c r="AL59" s="53"/>
-      <c r="AM59" s="53"/>
-      <c r="AN59" s="53"/>
-      <c r="AO59" s="53"/>
-      <c r="AP59" s="53"/>
-      <c r="AQ59" s="53"/>
-      <c r="AR59" s="53"/>
-      <c r="AS59" s="53"/>
-      <c r="AT59" s="53"/>
-      <c r="AU59" s="53"/>
-      <c r="AV59" s="53"/>
-      <c r="AW59" s="53"/>
-      <c r="AX59" s="53"/>
-      <c r="AY59" s="53"/>
-      <c r="AZ59" s="53"/>
-      <c r="BA59" s="53"/>
-      <c r="BB59" s="53"/>
-      <c r="BC59" s="53"/>
-      <c r="BD59" s="53"/>
-      <c r="BE59" s="53"/>
-      <c r="BF59" s="53"/>
-      <c r="BG59" s="53"/>
-      <c r="BH59" s="53"/>
-      <c r="BI59" s="53"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="34"/>
+      <c r="AC59" s="34"/>
+      <c r="AD59" s="34"/>
+      <c r="AE59" s="34"/>
+      <c r="AF59" s="34"/>
+      <c r="AG59" s="34"/>
+      <c r="AH59" s="34"/>
+      <c r="AI59" s="34"/>
+      <c r="AJ59" s="34"/>
+      <c r="AK59" s="34"/>
+      <c r="AL59" s="34"/>
+      <c r="AM59" s="34"/>
+      <c r="AN59" s="34"/>
+      <c r="AO59" s="34"/>
+      <c r="AP59" s="34"/>
+      <c r="AQ59" s="34"/>
+      <c r="AR59" s="34"/>
+      <c r="AS59" s="34"/>
+      <c r="AT59" s="69"/>
+      <c r="AU59" s="69"/>
+      <c r="AV59" s="69"/>
+      <c r="AW59" s="69"/>
+      <c r="AX59" s="69"/>
+      <c r="AY59" s="69"/>
+      <c r="AZ59" s="69"/>
+      <c r="BA59" s="69"/>
+      <c r="BB59" s="69"/>
+      <c r="BC59" s="69"/>
+      <c r="BD59" s="69"/>
+      <c r="BE59" s="69"/>
+      <c r="BF59" s="69"/>
+      <c r="BG59" s="69"/>
+      <c r="BH59" s="66"/>
+      <c r="BI59" s="32"/>
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
@@ -19752,41 +19905,930 @@
       <c r="IW59" s="1"/>
       <c r="IX59" s="1"/>
     </row>
+    <row r="60" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="28"/>
+      <c r="B60" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="V60" s="60"/>
+      <c r="W60" s="60"/>
+      <c r="X60" s="60"/>
+      <c r="Y60" s="58"/>
+      <c r="Z60" s="60"/>
+      <c r="AA60" s="60"/>
+      <c r="AB60" s="60"/>
+      <c r="AC60" s="60"/>
+      <c r="AD60" s="60"/>
+      <c r="AE60" s="60"/>
+      <c r="AF60" s="60"/>
+      <c r="AG60" s="60"/>
+      <c r="AH60" s="60"/>
+      <c r="AI60" s="60"/>
+      <c r="AJ60" s="60"/>
+      <c r="AK60" s="60"/>
+      <c r="AL60" s="60"/>
+      <c r="AM60" s="60"/>
+      <c r="AN60" s="60"/>
+      <c r="AO60" s="60"/>
+      <c r="AP60" s="60"/>
+      <c r="AQ60" s="60"/>
+      <c r="AR60" s="60"/>
+      <c r="AS60" s="60"/>
+      <c r="AU60" s="59"/>
+      <c r="AV60" s="58"/>
+      <c r="AW60" s="58"/>
+      <c r="AX60" s="58"/>
+      <c r="AY60" s="58"/>
+      <c r="AZ60" s="58"/>
+      <c r="BA60" s="58"/>
+      <c r="BB60" s="61"/>
+      <c r="BC60" s="61"/>
+      <c r="BD60" s="61"/>
+      <c r="BE60" s="61"/>
+      <c r="BF60" s="61"/>
+      <c r="BG60" s="61"/>
+      <c r="BH60" s="57"/>
+      <c r="BI60" s="32"/>
+      <c r="BJ60" s="1"/>
+      <c r="BK60" s="1"/>
+      <c r="BL60" s="1"/>
+      <c r="BM60" s="1"/>
+      <c r="BN60" s="1"/>
+      <c r="BO60" s="1"/>
+      <c r="BP60" s="1"/>
+      <c r="BQ60" s="1"/>
+      <c r="BR60" s="1"/>
+      <c r="BS60" s="1"/>
+      <c r="BT60" s="1"/>
+      <c r="BU60" s="1"/>
+      <c r="BV60" s="1"/>
+      <c r="BW60" s="1"/>
+      <c r="BX60" s="1"/>
+      <c r="BY60" s="1"/>
+      <c r="BZ60" s="1"/>
+      <c r="CA60" s="1"/>
+      <c r="CB60" s="1"/>
+      <c r="CC60" s="1"/>
+      <c r="CD60" s="1"/>
+      <c r="CE60" s="1"/>
+      <c r="CF60" s="1"/>
+      <c r="CG60" s="1"/>
+      <c r="CH60" s="1"/>
+      <c r="CI60" s="1"/>
+      <c r="CJ60" s="1"/>
+      <c r="CK60" s="1"/>
+      <c r="CL60" s="1"/>
+      <c r="CM60" s="1"/>
+      <c r="CN60" s="1"/>
+      <c r="CO60" s="1"/>
+      <c r="CP60" s="1"/>
+      <c r="CQ60" s="1"/>
+      <c r="CR60" s="1"/>
+      <c r="CS60" s="1"/>
+      <c r="CT60" s="1"/>
+      <c r="CU60" s="1"/>
+      <c r="CV60" s="1"/>
+      <c r="CW60" s="1"/>
+      <c r="CX60" s="1"/>
+      <c r="CY60" s="1"/>
+      <c r="CZ60" s="1"/>
+      <c r="DA60" s="1"/>
+      <c r="DB60" s="1"/>
+      <c r="DC60" s="1"/>
+      <c r="DD60" s="1"/>
+      <c r="DE60" s="1"/>
+      <c r="DF60" s="1"/>
+      <c r="DG60" s="1"/>
+      <c r="DH60" s="1"/>
+      <c r="DI60" s="1"/>
+      <c r="DJ60" s="1"/>
+      <c r="DK60" s="1"/>
+      <c r="DL60" s="1"/>
+      <c r="DM60" s="1"/>
+      <c r="DN60" s="1"/>
+      <c r="DO60" s="1"/>
+      <c r="DP60" s="1"/>
+      <c r="DQ60" s="1"/>
+      <c r="DR60" s="1"/>
+      <c r="DS60" s="1"/>
+      <c r="DT60" s="1"/>
+      <c r="DU60" s="1"/>
+      <c r="DV60" s="1"/>
+      <c r="DW60" s="1"/>
+      <c r="DX60" s="1"/>
+      <c r="DY60" s="1"/>
+      <c r="DZ60" s="1"/>
+      <c r="EA60" s="1"/>
+      <c r="EB60" s="1"/>
+      <c r="EC60" s="1"/>
+      <c r="ED60" s="1"/>
+      <c r="EE60" s="1"/>
+      <c r="EF60" s="1"/>
+      <c r="EG60" s="1"/>
+      <c r="EH60" s="1"/>
+      <c r="EI60" s="1"/>
+      <c r="EJ60" s="1"/>
+      <c r="EK60" s="1"/>
+      <c r="EL60" s="1"/>
+      <c r="EM60" s="1"/>
+      <c r="EN60" s="1"/>
+      <c r="EO60" s="1"/>
+      <c r="EP60" s="1"/>
+      <c r="EQ60" s="1"/>
+      <c r="ER60" s="1"/>
+      <c r="ES60" s="1"/>
+      <c r="ET60" s="1"/>
+      <c r="EU60" s="1"/>
+      <c r="EV60" s="1"/>
+      <c r="EW60" s="1"/>
+      <c r="EX60" s="1"/>
+      <c r="EY60" s="1"/>
+      <c r="EZ60" s="1"/>
+      <c r="FA60" s="1"/>
+      <c r="FB60" s="1"/>
+      <c r="FC60" s="1"/>
+      <c r="FD60" s="1"/>
+      <c r="FE60" s="1"/>
+      <c r="FF60" s="1"/>
+      <c r="FG60" s="1"/>
+      <c r="FH60" s="1"/>
+      <c r="FI60" s="1"/>
+      <c r="FJ60" s="1"/>
+      <c r="FK60" s="1"/>
+      <c r="FL60" s="1"/>
+      <c r="FM60" s="1"/>
+      <c r="FN60" s="1"/>
+      <c r="FO60" s="1"/>
+      <c r="FP60" s="1"/>
+      <c r="FQ60" s="1"/>
+      <c r="FR60" s="1"/>
+      <c r="FS60" s="1"/>
+      <c r="FT60" s="1"/>
+      <c r="FU60" s="1"/>
+      <c r="FV60" s="1"/>
+      <c r="FW60" s="1"/>
+      <c r="FX60" s="1"/>
+      <c r="FY60" s="1"/>
+      <c r="FZ60" s="1"/>
+      <c r="GA60" s="1"/>
+      <c r="GB60" s="1"/>
+      <c r="GC60" s="1"/>
+      <c r="GD60" s="1"/>
+      <c r="GE60" s="1"/>
+      <c r="GF60" s="1"/>
+      <c r="GG60" s="1"/>
+      <c r="GH60" s="1"/>
+      <c r="GI60" s="1"/>
+      <c r="GJ60" s="1"/>
+      <c r="GK60" s="1"/>
+      <c r="GL60" s="1"/>
+      <c r="GM60" s="1"/>
+      <c r="GN60" s="1"/>
+      <c r="GO60" s="1"/>
+      <c r="GP60" s="1"/>
+      <c r="GQ60" s="1"/>
+      <c r="GR60" s="1"/>
+      <c r="GS60" s="1"/>
+      <c r="GT60" s="1"/>
+      <c r="GU60" s="1"/>
+      <c r="GV60" s="1"/>
+      <c r="GW60" s="1"/>
+      <c r="GX60" s="1"/>
+      <c r="GY60" s="1"/>
+      <c r="GZ60" s="1"/>
+      <c r="HA60" s="1"/>
+      <c r="HB60" s="1"/>
+      <c r="HC60" s="1"/>
+      <c r="HD60" s="1"/>
+      <c r="HE60" s="1"/>
+      <c r="HF60" s="1"/>
+      <c r="HG60" s="1"/>
+      <c r="HH60" s="1"/>
+      <c r="HI60" s="1"/>
+      <c r="HJ60" s="1"/>
+      <c r="HK60" s="1"/>
+      <c r="HL60" s="1"/>
+      <c r="HM60" s="1"/>
+      <c r="HN60" s="1"/>
+      <c r="HO60" s="1"/>
+      <c r="HP60" s="1"/>
+      <c r="HQ60" s="1"/>
+      <c r="HR60" s="1"/>
+      <c r="HS60" s="1"/>
+      <c r="HT60" s="1"/>
+      <c r="HU60" s="1"/>
+      <c r="HV60" s="1"/>
+      <c r="HW60" s="1"/>
+      <c r="HX60" s="1"/>
+      <c r="HY60" s="1"/>
+      <c r="HZ60" s="1"/>
+      <c r="IA60" s="1"/>
+      <c r="IB60" s="1"/>
+      <c r="IC60" s="1"/>
+      <c r="ID60" s="1"/>
+      <c r="IE60" s="1"/>
+      <c r="IF60" s="1"/>
+      <c r="IG60" s="1"/>
+      <c r="IH60" s="1"/>
+      <c r="II60" s="1"/>
+      <c r="IJ60" s="1"/>
+      <c r="IK60" s="1"/>
+      <c r="IL60" s="1"/>
+      <c r="IM60" s="1"/>
+      <c r="IN60" s="1"/>
+      <c r="IO60" s="1"/>
+      <c r="IP60" s="1"/>
+      <c r="IQ60" s="1"/>
+      <c r="IR60" s="1"/>
+      <c r="IS60" s="1"/>
+      <c r="IT60" s="1"/>
+      <c r="IU60" s="1"/>
+      <c r="IV60" s="1"/>
+      <c r="IW60" s="1"/>
+      <c r="IX60" s="1"/>
+    </row>
+    <row r="61" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="47"/>
+      <c r="Z61" s="47"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="47"/>
+      <c r="AC61" s="47"/>
+      <c r="AD61" s="47"/>
+      <c r="AE61" s="46"/>
+      <c r="AF61" s="46"/>
+      <c r="AG61" s="46"/>
+      <c r="AH61" s="46"/>
+      <c r="AI61" s="46"/>
+      <c r="AJ61" s="46"/>
+      <c r="AK61" s="46"/>
+      <c r="AL61" s="47"/>
+      <c r="AM61" s="43"/>
+      <c r="AN61" s="43"/>
+      <c r="AO61" s="43"/>
+      <c r="AP61" s="43"/>
+      <c r="AQ61" s="43"/>
+      <c r="AR61" s="43"/>
+      <c r="AS61" s="43"/>
+      <c r="AT61" s="63"/>
+      <c r="AU61" s="48"/>
+      <c r="AV61" s="63"/>
+      <c r="AW61" s="63"/>
+      <c r="AX61" s="63"/>
+      <c r="AY61" s="63"/>
+      <c r="AZ61" s="63"/>
+      <c r="BA61" s="63"/>
+      <c r="BB61" s="64"/>
+      <c r="BC61" s="64"/>
+      <c r="BD61" s="64"/>
+      <c r="BE61" s="64"/>
+      <c r="BF61" s="64"/>
+      <c r="BG61" s="64"/>
+      <c r="BH61" s="65"/>
+      <c r="BI61" s="3"/>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="1"/>
+      <c r="BM61" s="1"/>
+      <c r="BN61" s="1"/>
+      <c r="BO61" s="1"/>
+      <c r="BP61" s="1"/>
+      <c r="BQ61" s="1"/>
+      <c r="BR61" s="1"/>
+      <c r="BS61" s="1"/>
+      <c r="BT61" s="1"/>
+      <c r="BU61" s="1"/>
+      <c r="BV61" s="1"/>
+      <c r="BW61" s="1"/>
+      <c r="BX61" s="1"/>
+      <c r="BY61" s="1"/>
+      <c r="BZ61" s="1"/>
+      <c r="CA61" s="1"/>
+      <c r="CB61" s="1"/>
+      <c r="CC61" s="1"/>
+      <c r="CD61" s="1"/>
+      <c r="CE61" s="1"/>
+      <c r="CF61" s="1"/>
+      <c r="CG61" s="1"/>
+      <c r="CH61" s="1"/>
+      <c r="CI61" s="1"/>
+      <c r="CJ61" s="1"/>
+      <c r="CK61" s="1"/>
+      <c r="CL61" s="1"/>
+      <c r="CM61" s="1"/>
+      <c r="CN61" s="1"/>
+      <c r="CO61" s="1"/>
+      <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
+      <c r="CR61" s="1"/>
+      <c r="CS61" s="1"/>
+      <c r="CT61" s="1"/>
+      <c r="CU61" s="1"/>
+      <c r="CV61" s="1"/>
+      <c r="CW61" s="1"/>
+      <c r="CX61" s="1"/>
+      <c r="CY61" s="1"/>
+      <c r="CZ61" s="1"/>
+      <c r="DA61" s="1"/>
+      <c r="DB61" s="1"/>
+      <c r="DC61" s="1"/>
+      <c r="DD61" s="1"/>
+      <c r="DE61" s="1"/>
+      <c r="DF61" s="1"/>
+      <c r="DG61" s="1"/>
+      <c r="DH61" s="1"/>
+      <c r="DI61" s="1"/>
+      <c r="DJ61" s="1"/>
+      <c r="DK61" s="1"/>
+      <c r="DL61" s="1"/>
+      <c r="DM61" s="1"/>
+      <c r="DN61" s="1"/>
+      <c r="DO61" s="1"/>
+      <c r="DP61" s="1"/>
+      <c r="DQ61" s="1"/>
+      <c r="DR61" s="1"/>
+      <c r="DS61" s="1"/>
+      <c r="DT61" s="1"/>
+      <c r="DU61" s="1"/>
+      <c r="DV61" s="1"/>
+      <c r="DW61" s="1"/>
+      <c r="DX61" s="1"/>
+      <c r="DY61" s="1"/>
+      <c r="DZ61" s="1"/>
+      <c r="EA61" s="1"/>
+      <c r="EB61" s="1"/>
+      <c r="EC61" s="1"/>
+      <c r="ED61" s="1"/>
+      <c r="EE61" s="1"/>
+      <c r="EF61" s="1"/>
+      <c r="EG61" s="1"/>
+      <c r="EH61" s="1"/>
+      <c r="EI61" s="1"/>
+      <c r="EJ61" s="1"/>
+      <c r="EK61" s="1"/>
+      <c r="EL61" s="1"/>
+      <c r="EM61" s="1"/>
+      <c r="EN61" s="1"/>
+      <c r="EO61" s="1"/>
+      <c r="EP61" s="1"/>
+      <c r="EQ61" s="1"/>
+      <c r="ER61" s="1"/>
+      <c r="ES61" s="1"/>
+      <c r="ET61" s="1"/>
+      <c r="EU61" s="1"/>
+      <c r="EV61" s="1"/>
+      <c r="EW61" s="1"/>
+      <c r="EX61" s="1"/>
+      <c r="EY61" s="1"/>
+      <c r="EZ61" s="1"/>
+      <c r="FA61" s="1"/>
+      <c r="FB61" s="1"/>
+      <c r="FC61" s="1"/>
+      <c r="FD61" s="1"/>
+      <c r="FE61" s="1"/>
+      <c r="FF61" s="1"/>
+      <c r="FG61" s="1"/>
+      <c r="FH61" s="1"/>
+      <c r="FI61" s="1"/>
+      <c r="FJ61" s="1"/>
+      <c r="FK61" s="1"/>
+      <c r="FL61" s="1"/>
+      <c r="FM61" s="1"/>
+      <c r="FN61" s="1"/>
+      <c r="FO61" s="1"/>
+      <c r="FP61" s="1"/>
+      <c r="FQ61" s="1"/>
+      <c r="FR61" s="1"/>
+      <c r="FS61" s="1"/>
+      <c r="FT61" s="1"/>
+      <c r="FU61" s="1"/>
+      <c r="FV61" s="1"/>
+      <c r="FW61" s="1"/>
+      <c r="FX61" s="1"/>
+      <c r="FY61" s="1"/>
+      <c r="FZ61" s="1"/>
+      <c r="GA61" s="1"/>
+      <c r="GB61" s="1"/>
+      <c r="GC61" s="1"/>
+      <c r="GD61" s="1"/>
+      <c r="GE61" s="1"/>
+      <c r="GF61" s="1"/>
+      <c r="GG61" s="1"/>
+      <c r="GH61" s="1"/>
+      <c r="GI61" s="1"/>
+      <c r="GJ61" s="1"/>
+      <c r="GK61" s="1"/>
+      <c r="GL61" s="1"/>
+      <c r="GM61" s="1"/>
+      <c r="GN61" s="1"/>
+      <c r="GO61" s="1"/>
+      <c r="GP61" s="1"/>
+      <c r="GQ61" s="1"/>
+      <c r="GR61" s="1"/>
+      <c r="GS61" s="1"/>
+      <c r="GT61" s="1"/>
+      <c r="GU61" s="1"/>
+      <c r="GV61" s="1"/>
+      <c r="GW61" s="1"/>
+      <c r="GX61" s="1"/>
+      <c r="GY61" s="1"/>
+      <c r="GZ61" s="1"/>
+      <c r="HA61" s="1"/>
+      <c r="HB61" s="1"/>
+      <c r="HC61" s="1"/>
+      <c r="HD61" s="1"/>
+      <c r="HE61" s="1"/>
+      <c r="HF61" s="1"/>
+      <c r="HG61" s="1"/>
+      <c r="HH61" s="1"/>
+      <c r="HI61" s="1"/>
+      <c r="HJ61" s="1"/>
+      <c r="HK61" s="1"/>
+      <c r="HL61" s="1"/>
+      <c r="HM61" s="1"/>
+      <c r="HN61" s="1"/>
+      <c r="HO61" s="1"/>
+      <c r="HP61" s="1"/>
+      <c r="HQ61" s="1"/>
+      <c r="HR61" s="1"/>
+      <c r="HS61" s="1"/>
+      <c r="HT61" s="1"/>
+      <c r="HU61" s="1"/>
+      <c r="HV61" s="1"/>
+      <c r="HW61" s="1"/>
+      <c r="HX61" s="1"/>
+      <c r="HY61" s="1"/>
+      <c r="HZ61" s="1"/>
+      <c r="IA61" s="1"/>
+      <c r="IB61" s="1"/>
+      <c r="IC61" s="1"/>
+      <c r="ID61" s="1"/>
+      <c r="IE61" s="1"/>
+      <c r="IF61" s="1"/>
+      <c r="IG61" s="1"/>
+      <c r="IH61" s="1"/>
+      <c r="II61" s="1"/>
+      <c r="IJ61" s="1"/>
+      <c r="IK61" s="1"/>
+      <c r="IL61" s="1"/>
+      <c r="IM61" s="1"/>
+      <c r="IN61" s="1"/>
+      <c r="IO61" s="1"/>
+      <c r="IP61" s="1"/>
+      <c r="IQ61" s="1"/>
+      <c r="IR61" s="1"/>
+      <c r="IS61" s="1"/>
+      <c r="IT61" s="1"/>
+      <c r="IU61" s="1"/>
+      <c r="IV61" s="1"/>
+      <c r="IW61" s="1"/>
+      <c r="IX61" s="1"/>
+    </row>
+    <row r="62" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="53"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="38"/>
+      <c r="AF62" s="38"/>
+      <c r="AG62" s="38"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="8"/>
+      <c r="AN62" s="8"/>
+      <c r="AO62" s="8"/>
+      <c r="AP62" s="8"/>
+      <c r="AQ62" s="8"/>
+      <c r="AR62" s="8"/>
+      <c r="AS62" s="8"/>
+      <c r="AT62" s="22"/>
+      <c r="AU62" s="3"/>
+      <c r="AV62" s="22"/>
+      <c r="AW62" s="7"/>
+      <c r="AX62" s="7"/>
+      <c r="AY62" s="7"/>
+      <c r="AZ62" s="7"/>
+      <c r="BA62" s="7"/>
+      <c r="BB62" s="39"/>
+      <c r="BC62" s="39"/>
+      <c r="BD62" s="39"/>
+      <c r="BE62" s="39"/>
+      <c r="BF62" s="39"/>
+      <c r="BG62" s="39"/>
+      <c r="BH62" s="53"/>
+      <c r="BI62" s="53"/>
+      <c r="BJ62" s="1"/>
+      <c r="BK62" s="1"/>
+      <c r="BL62" s="1"/>
+      <c r="BM62" s="1"/>
+      <c r="BN62" s="1"/>
+      <c r="BO62" s="1"/>
+      <c r="BP62" s="1"/>
+      <c r="BQ62" s="1"/>
+      <c r="BR62" s="1"/>
+      <c r="BS62" s="1"/>
+      <c r="BT62" s="1"/>
+      <c r="BU62" s="1"/>
+      <c r="BV62" s="1"/>
+      <c r="BW62" s="1"/>
+      <c r="BX62" s="1"/>
+      <c r="BY62" s="1"/>
+      <c r="BZ62" s="1"/>
+      <c r="CA62" s="1"/>
+      <c r="CB62" s="1"/>
+      <c r="CC62" s="1"/>
+      <c r="CD62" s="1"/>
+      <c r="CE62" s="1"/>
+      <c r="CF62" s="1"/>
+      <c r="CG62" s="1"/>
+      <c r="CH62" s="1"/>
+      <c r="CI62" s="1"/>
+      <c r="CJ62" s="1"/>
+      <c r="CK62" s="1"/>
+      <c r="CL62" s="1"/>
+      <c r="CM62" s="1"/>
+      <c r="CN62" s="1"/>
+      <c r="CO62" s="1"/>
+      <c r="CP62" s="1"/>
+      <c r="CQ62" s="1"/>
+      <c r="CR62" s="1"/>
+      <c r="CS62" s="1"/>
+      <c r="CT62" s="1"/>
+      <c r="CU62" s="1"/>
+      <c r="CV62" s="1"/>
+      <c r="CW62" s="1"/>
+      <c r="CX62" s="1"/>
+      <c r="CY62" s="1"/>
+      <c r="CZ62" s="1"/>
+      <c r="DA62" s="1"/>
+      <c r="DB62" s="1"/>
+      <c r="DC62" s="1"/>
+      <c r="DD62" s="1"/>
+      <c r="DE62" s="1"/>
+      <c r="DF62" s="1"/>
+      <c r="DG62" s="1"/>
+      <c r="DH62" s="1"/>
+      <c r="DI62" s="1"/>
+      <c r="DJ62" s="1"/>
+      <c r="DK62" s="1"/>
+      <c r="DL62" s="1"/>
+      <c r="DM62" s="1"/>
+      <c r="DN62" s="1"/>
+      <c r="DO62" s="1"/>
+      <c r="DP62" s="1"/>
+      <c r="DQ62" s="1"/>
+      <c r="DR62" s="1"/>
+      <c r="DS62" s="1"/>
+      <c r="DT62" s="1"/>
+      <c r="DU62" s="1"/>
+      <c r="DV62" s="1"/>
+      <c r="DW62" s="1"/>
+      <c r="DX62" s="1"/>
+      <c r="DY62" s="1"/>
+      <c r="DZ62" s="1"/>
+      <c r="EA62" s="1"/>
+      <c r="EB62" s="1"/>
+      <c r="EC62" s="1"/>
+      <c r="ED62" s="1"/>
+      <c r="EE62" s="1"/>
+      <c r="EF62" s="1"/>
+      <c r="EG62" s="1"/>
+      <c r="EH62" s="1"/>
+      <c r="EI62" s="1"/>
+      <c r="EJ62" s="1"/>
+      <c r="EK62" s="1"/>
+      <c r="EL62" s="1"/>
+      <c r="EM62" s="1"/>
+      <c r="EN62" s="1"/>
+      <c r="EO62" s="1"/>
+      <c r="EP62" s="1"/>
+      <c r="EQ62" s="1"/>
+      <c r="ER62" s="1"/>
+      <c r="ES62" s="1"/>
+      <c r="ET62" s="1"/>
+      <c r="EU62" s="1"/>
+      <c r="EV62" s="1"/>
+      <c r="EW62" s="1"/>
+      <c r="EX62" s="1"/>
+      <c r="EY62" s="1"/>
+      <c r="EZ62" s="1"/>
+      <c r="FA62" s="1"/>
+      <c r="FB62" s="1"/>
+      <c r="FC62" s="1"/>
+      <c r="FD62" s="1"/>
+      <c r="FE62" s="1"/>
+      <c r="FF62" s="1"/>
+      <c r="FG62" s="1"/>
+      <c r="FH62" s="1"/>
+      <c r="FI62" s="1"/>
+      <c r="FJ62" s="1"/>
+      <c r="FK62" s="1"/>
+      <c r="FL62" s="1"/>
+      <c r="FM62" s="1"/>
+      <c r="FN62" s="1"/>
+      <c r="FO62" s="1"/>
+      <c r="FP62" s="1"/>
+      <c r="FQ62" s="1"/>
+      <c r="FR62" s="1"/>
+      <c r="FS62" s="1"/>
+      <c r="FT62" s="1"/>
+      <c r="FU62" s="1"/>
+      <c r="FV62" s="1"/>
+      <c r="FW62" s="1"/>
+      <c r="FX62" s="1"/>
+      <c r="FY62" s="1"/>
+      <c r="FZ62" s="1"/>
+      <c r="GA62" s="1"/>
+      <c r="GB62" s="1"/>
+      <c r="GC62" s="1"/>
+      <c r="GD62" s="1"/>
+      <c r="GE62" s="1"/>
+      <c r="GF62" s="1"/>
+      <c r="GG62" s="1"/>
+      <c r="GH62" s="1"/>
+      <c r="GI62" s="1"/>
+      <c r="GJ62" s="1"/>
+      <c r="GK62" s="1"/>
+      <c r="GL62" s="1"/>
+      <c r="GM62" s="1"/>
+      <c r="GN62" s="1"/>
+      <c r="GO62" s="1"/>
+      <c r="GP62" s="1"/>
+      <c r="GQ62" s="1"/>
+      <c r="GR62" s="1"/>
+      <c r="GS62" s="1"/>
+      <c r="GT62" s="1"/>
+      <c r="GU62" s="1"/>
+      <c r="GV62" s="1"/>
+      <c r="GW62" s="1"/>
+      <c r="GX62" s="1"/>
+      <c r="GY62" s="1"/>
+      <c r="GZ62" s="1"/>
+      <c r="HA62" s="1"/>
+      <c r="HB62" s="1"/>
+      <c r="HC62" s="1"/>
+      <c r="HD62" s="1"/>
+      <c r="HE62" s="1"/>
+      <c r="HF62" s="1"/>
+      <c r="HG62" s="1"/>
+      <c r="HH62" s="1"/>
+      <c r="HI62" s="1"/>
+      <c r="HJ62" s="1"/>
+      <c r="HK62" s="1"/>
+      <c r="HL62" s="1"/>
+      <c r="HM62" s="1"/>
+      <c r="HN62" s="1"/>
+      <c r="HO62" s="1"/>
+      <c r="HP62" s="1"/>
+      <c r="HQ62" s="1"/>
+      <c r="HR62" s="1"/>
+      <c r="HS62" s="1"/>
+      <c r="HT62" s="1"/>
+      <c r="HU62" s="1"/>
+      <c r="HV62" s="1"/>
+      <c r="HW62" s="1"/>
+      <c r="HX62" s="1"/>
+      <c r="HY62" s="1"/>
+      <c r="HZ62" s="1"/>
+      <c r="IA62" s="1"/>
+      <c r="IB62" s="1"/>
+      <c r="IC62" s="1"/>
+      <c r="ID62" s="1"/>
+      <c r="IE62" s="1"/>
+      <c r="IF62" s="1"/>
+      <c r="IG62" s="1"/>
+      <c r="IH62" s="1"/>
+      <c r="II62" s="1"/>
+      <c r="IJ62" s="1"/>
+      <c r="IK62" s="1"/>
+      <c r="IL62" s="1"/>
+      <c r="IM62" s="1"/>
+      <c r="IN62" s="1"/>
+      <c r="IO62" s="1"/>
+      <c r="IP62" s="1"/>
+      <c r="IQ62" s="1"/>
+      <c r="IR62" s="1"/>
+      <c r="IS62" s="1"/>
+      <c r="IT62" s="1"/>
+      <c r="IU62" s="1"/>
+      <c r="IV62" s="1"/>
+      <c r="IW62" s="1"/>
+      <c r="IX62" s="1"/>
+    </row>
+    <row r="63" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="3"/>
+      <c r="AK63" s="3"/>
+      <c r="AL63" s="3"/>
+      <c r="AM63" s="3"/>
+      <c r="AN63" s="3"/>
+      <c r="AO63" s="3"/>
+      <c r="AP63" s="3"/>
+      <c r="AQ63" s="3"/>
+      <c r="AR63" s="3"/>
+      <c r="AS63" s="3"/>
+      <c r="AT63" s="3"/>
+      <c r="AU63" s="3"/>
+      <c r="AV63" s="3"/>
+      <c r="AW63" s="3"/>
+      <c r="AX63" s="3"/>
+      <c r="AY63" s="3"/>
+      <c r="AZ63" s="3"/>
+      <c r="BA63" s="3"/>
+      <c r="BB63" s="3"/>
+      <c r="BC63" s="3"/>
+      <c r="BD63" s="3"/>
+      <c r="BE63" s="3"/>
+      <c r="BF63" s="3"/>
+      <c r="BG63" s="3"/>
+    </row>
+    <row r="64" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
+      <c r="Q64" s="53"/>
+      <c r="R64" s="53"/>
+      <c r="S64" s="53"/>
+      <c r="T64" s="53"/>
+      <c r="U64" s="53"/>
+      <c r="V64" s="53"/>
+      <c r="W64" s="53"/>
+      <c r="X64" s="53"/>
+      <c r="Y64" s="53"/>
+      <c r="Z64" s="53"/>
+      <c r="AA64" s="53"/>
+      <c r="AB64" s="53"/>
+      <c r="AC64" s="53"/>
+      <c r="AD64" s="53"/>
+      <c r="AE64" s="53"/>
+      <c r="AF64" s="53"/>
+      <c r="AG64" s="53"/>
+      <c r="AH64" s="53"/>
+      <c r="AI64" s="53"/>
+      <c r="AJ64" s="53"/>
+      <c r="AK64" s="53"/>
+      <c r="AL64" s="53"/>
+      <c r="AM64" s="53"/>
+      <c r="AN64" s="53"/>
+      <c r="AO64" s="53"/>
+      <c r="AP64" s="53"/>
+      <c r="AQ64" s="53"/>
+      <c r="AR64" s="53"/>
+      <c r="AS64" s="53"/>
+      <c r="AT64" s="53"/>
+      <c r="AU64" s="53"/>
+      <c r="AV64" s="53"/>
+      <c r="AW64" s="53"/>
+      <c r="AX64" s="53"/>
+      <c r="AY64" s="53"/>
+      <c r="AZ64" s="53"/>
+      <c r="BA64" s="53"/>
+      <c r="BB64" s="53"/>
+      <c r="BC64" s="53"/>
+      <c r="BD64" s="53"/>
+      <c r="BE64" s="53"/>
+      <c r="BF64" s="53"/>
+      <c r="BG64" s="53"/>
+    </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="AE20:AX20"/>
-    <mergeCell ref="AY20:BG20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="S20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE18:AX18"/>
-    <mergeCell ref="AY18:BG18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="S19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AX19"/>
-    <mergeCell ref="AY19:BG19"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="S27:Z27"/>
-    <mergeCell ref="AA27:BG27"/>
-    <mergeCell ref="B29:BH29"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="S25:Z25"/>
-    <mergeCell ref="AA25:BG25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="S26:Z26"/>
-    <mergeCell ref="AA26:BG26"/>
+  <mergeCells count="114">
+    <mergeCell ref="B31:BH31"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="S29:Z29"/>
+    <mergeCell ref="AA29:BG29"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AX21"/>
+    <mergeCell ref="AY21:BG21"/>
+    <mergeCell ref="AE22:AX22"/>
+    <mergeCell ref="AY22:BG22"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="AA13:BG13"/>
     <mergeCell ref="AE16:AX16"/>
     <mergeCell ref="AY16:BG16"/>
     <mergeCell ref="C17:J17"/>
@@ -19801,14 +20843,6 @@
     <mergeCell ref="S16:Z16"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="AA12:BG12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="AA13:BG13"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="S9:Z9"/>
@@ -19817,6 +20851,15 @@
     <mergeCell ref="K8:R8"/>
     <mergeCell ref="S8:Z8"/>
     <mergeCell ref="AA8:BG8"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="AA12:BG12"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -19833,37 +20876,61 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="B52:BH52"/>
-    <mergeCell ref="AE21:AX21"/>
-    <mergeCell ref="AY21:BG21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AX22"/>
-    <mergeCell ref="AY22:BG22"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="S21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="S18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AX18"/>
+    <mergeCell ref="AY18:BG18"/>
+    <mergeCell ref="AE23:AX23"/>
+    <mergeCell ref="AY23:BG23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AX24"/>
+    <mergeCell ref="AY24:BG24"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="B57:BH57"/>
+    <mergeCell ref="AE20:AX20"/>
+    <mergeCell ref="AY20:BG20"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AX19"/>
+    <mergeCell ref="AY19:BG19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="S27:Z27"/>
+    <mergeCell ref="AA27:BG27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="S28:Z28"/>
+    <mergeCell ref="AA28:BG28"/>
+    <mergeCell ref="C29:J29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"引数,戻り値,例外,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B14" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"引数,戻り値,例外"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA17:AD23" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA17:AD25" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"あり,なし"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19875,6 +20942,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -20006,7 +21079,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -20015,13 +21088,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7560E91F-1ABF-4BEF-A078-A8FA5AD9AA18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20039,19 +21115,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>